--- a/02_screening/022_Anomalies/momentum.xlsx
+++ b/02_screening/022_Anomalies/momentum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\X\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\longh\Desktop\X\02_screening\022_Anomalies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897B3B0B-3481-44CD-B35D-99DE2B95D8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5416C21F-3343-43BD-9B03-342FD8AE0C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="5" xr2:uid="{E8E2FE8C-4884-4018-8A72-37146AA5AB4B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{E8E2FE8C-4884-4018-8A72-37146AA5AB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="__snloffice" sheetId="3" state="veryHidden" r:id="rId1"/>
@@ -49,14 +49,19 @@
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="snl__32C63337_448D_4FAE_AE3F_4E306D6EB59B_" localSheetId="3" hidden="1">Mom6m.Vol!$A$5,Mom6m.Vol!$C$10:$J$94</definedName>
     <definedName name="snl__383CBC2A_5917_4E90_A566_AEE59005BF7F_" localSheetId="5" hidden="1">Mom1m.Vol1m!$A$4,Mom1m.Vol1m!$C$9:$H$47</definedName>
+    <definedName name="snl__3E475C92_FE9E_4427_AC80_D290E0359E94_" localSheetId="5" hidden="1">Mom1m.Vol1m!$A$4,Mom1m.Vol1m!$C$9:$H$47</definedName>
     <definedName name="snl__51934391_2A99_47DC_9CCA_DBD5C6ECAEBD_" localSheetId="3" hidden="1">Mom6m.Vol!$A$5,Mom6m.Vol!$C$10:$J$94</definedName>
     <definedName name="snl__52E565C6_6FA9_4160_899D_8152DAC4B341_" localSheetId="2" hidden="1">Mom6m.Junk!$A$4,Mom6m.Junk!$C$9:$J$44</definedName>
-    <definedName name="snl__5773892A_8579_46AB_BED5_5058BEF2E1F0_" localSheetId="3" hidden="1">Mom6m.Vol!$A$5,Mom6m.Vol!$C$10:$J$94</definedName>
+    <definedName name="snl__6817C739_4CFC_4138_8F53_FCD920B0621A_" localSheetId="4" hidden="1">Mom6m.FirmAge!$A$4,Mom6m.FirmAge!$C$9:$U$53</definedName>
+    <definedName name="snl__80CDE696_9A79_453F_9AFD_DAC1903A9246_" localSheetId="5" hidden="1">Mom1m.Vol1m!$A$4,Mom1m.Vol1m!$C$9:$H$47</definedName>
     <definedName name="snl__87366B43_2162_49B3_BFE9_62C3B32A08B6_" localSheetId="4" hidden="1">Mom6m.FirmAge!$A$4,Mom6m.FirmAge!$C$9:$U$53</definedName>
     <definedName name="snl__AC3082F8_4CE4_40EE_B1FF_DEBAA72F9EC1_" localSheetId="2" hidden="1">Mom6m.Junk!$A$4,Mom6m.Junk!$C$9:$J$44</definedName>
     <definedName name="snl__B14960F6_6423_4B75_AE6C_233960F83470_" localSheetId="4" hidden="1">Mom6m.FirmAge!$A$4,Mom6m.FirmAge!$C$9:$U$53</definedName>
+    <definedName name="snl__C6E0BE10_3868_4984_888D_117262E74252_" localSheetId="4" hidden="1">Mom6m.FirmAge!$A$4,Mom6m.FirmAge!$C$9:$U$53</definedName>
     <definedName name="snl__E68BCD39_D64A_4855_AF9E_4F400DD24E53_" localSheetId="5" hidden="1">Mom1m.Vol1m!$A$4,Mom1m.Vol1m!$C$9:$H$47</definedName>
+    <definedName name="snl__ECE164AF_D8FF_470B_89D2_DA256CA48FBD_" localSheetId="3" hidden="1">Mom6m.Vol!$A$5,Mom6m.Vol!$C$10:$J$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="432">
   <si>
     <t>NA</t>
   </si>
@@ -4142,17 +4147,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C28F445C-6D3D-4BF1-B640-BAD1596F14E8}">
   <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-      <selection pane="bottomRight" activeCell="J18" sqref="H18:J20"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="27.109375" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="45.44140625" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="47.6640625" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="46.33203125" style="33" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="6.44140625" style="30" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="45.44140625" style="22" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="12.33203125" style="22" customWidth="1"/>
@@ -4282,11 +4289,11 @@
         <v>IonQ, Inc. (NYSE:IONQ)</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="G5" s="34" t="str">
         <f t="shared" ref="G5:G6" si="0">IF(COUNTIF(A:A,$F5)&gt;0,"Y","N")</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H5" s="34" t="str">
         <f t="shared" ref="H5:H6" si="1">IF(COUNTIF(B:B,$F5)&gt;0,"Y","N")</f>
@@ -4319,11 +4326,11 @@
         <v>Upstart Holdings, Inc. (NASDAQGS:UPST)</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G6" s="34" t="str">
         <f t="shared" si="0"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H6" s="34" t="str">
         <f t="shared" si="1"/>
@@ -4356,7 +4363,7 @@
         <v>Riot Platforms, Inc. (NASDAQCM:RIOT)</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="34" t="str">
         <f t="shared" ref="G7:G28" si="4">IF(COUNTIF(A:A,$F7)&gt;0,"Y","N")</f>
@@ -4393,11 +4400,11 @@
         <v>Coinbase Global, Inc. (NASDAQGS:COIN)</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="G8" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H8" s="34" t="str">
         <f t="shared" si="5"/>
@@ -4409,7 +4416,7 @@
       </c>
       <c r="J8" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4430,23 +4437,23 @@
         <v>Mobileye Global Inc. (NASDAQGS:MBLY)</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="G9" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H9" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I9" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="J9" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4467,11 +4474,11 @@
         <v>Peloton Interactive, Inc. (NASDAQGS:PTON)</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="G10" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H10" s="34" t="str">
         <f t="shared" si="5"/>
@@ -4483,7 +4490,7 @@
       </c>
       <c r="J10" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4504,7 +4511,7 @@
         <v>Reddit, Inc. (NYSE:RDDT)</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="34" t="str">
         <f t="shared" si="4"/>
@@ -4520,7 +4527,7 @@
       </c>
       <c r="J11" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4541,15 +4548,15 @@
         <v>SoFi Technologies, Inc. (NASDAQGS:SOFI)</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="G12" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H12" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I12" s="34" t="str">
         <f t="shared" si="6"/>
@@ -4578,15 +4585,15 @@
         <v>American Airlines Group Inc. (NASDAQGS:AAL)</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="G13" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H13" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I13" s="34" t="str">
         <f t="shared" si="6"/>
@@ -4594,7 +4601,7 @@
       </c>
       <c r="J13" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4615,11 +4622,11 @@
         <v>Stride, Inc. (NYSE:LRN)</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="G14" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H14" s="34" t="str">
         <f t="shared" si="5"/>
@@ -4627,7 +4634,7 @@
       </c>
       <c r="I14" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="J14" s="34" t="str">
         <f t="shared" si="7"/>
@@ -4652,15 +4659,15 @@
         <v>ZIM Integrated Shipping Services Ltd. (NYSE:ZIM)</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="G15" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H15" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I15" s="34" t="str">
         <f t="shared" si="6"/>
@@ -4668,7 +4675,7 @@
       </c>
       <c r="J15" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4689,15 +4696,15 @@
         <v>Core Scientific, Inc. (NASDAQGS:CORZ)</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="G16" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H16" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I16" s="34" t="str">
         <f t="shared" si="6"/>
@@ -4705,7 +4712,7 @@
       </c>
       <c r="J16" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4726,15 +4733,15 @@
         <v>Rocket Lab USA, Inc. (NASDAQCM:RKLB)</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="G17" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H17" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I17" s="34" t="str">
         <f t="shared" si="6"/>
@@ -4763,11 +4770,11 @@
         <v>Lyft, Inc. (NASDAQGS:LYFT)</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="G18" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H18" s="34" t="str">
         <f t="shared" si="5"/>
@@ -4775,11 +4782,11 @@
       </c>
       <c r="I18" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="J18" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4800,15 +4807,15 @@
         <v>The GEO Group, Inc. (NYSE:GEO)</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="G19" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H19" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I19" s="34" t="str">
         <f t="shared" si="6"/>
@@ -4816,7 +4823,7 @@
       </c>
       <c r="J19" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4837,23 +4844,23 @@
         <v>Brinker International, Inc. (NYSE:EAT)</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G20" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H20" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I20" s="34" t="str">
         <f t="shared" si="6"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="J20" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4874,11 +4881,11 @@
         <v>Astera Labs, Inc. (NASDAQGS:ALAB)</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="G21" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H21" s="34" t="str">
         <f t="shared" si="5"/>
@@ -4890,7 +4897,7 @@
       </c>
       <c r="J21" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4911,7 +4918,7 @@
         <v>Tesla, Inc. (NASDAQGS:TSLA)</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G22" s="34" t="str">
         <f t="shared" si="4"/>
@@ -4919,7 +4926,7 @@
       </c>
       <c r="H22" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I22" s="34" t="str">
         <f t="shared" si="6"/>
@@ -4927,7 +4934,7 @@
       </c>
       <c r="J22" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4948,7 +4955,7 @@
         <v>Bloom Energy Corporation (NYSE:BE)</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G23" s="34" t="str">
         <f t="shared" si="4"/>
@@ -4985,11 +4992,11 @@
         <v>Dutch Bros Inc. (NYSE:BROS)</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="G24" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H24" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5001,7 +5008,7 @@
       </c>
       <c r="J24" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5022,15 +5029,15 @@
         <v>Palantir Technologies Inc. (NYSE:PLTR)</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>125</v>
+        <v>45</v>
       </c>
       <c r="G25" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H25" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I25" s="34" t="str">
         <f t="shared" si="6"/>
@@ -5038,7 +5045,7 @@
       </c>
       <c r="J25" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5059,11 +5066,11 @@
         <v>Lumentum Holdings Inc. (NASDAQGS:LITE)</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="G26" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H26" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5075,7 +5082,7 @@
       </c>
       <c r="J26" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5096,15 +5103,15 @@
         <v>TG Therapeutics, Inc. (NASDAQCM:TGTX)</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="G27" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H27" s="34" t="str">
         <f t="shared" si="5"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I27" s="34" t="str">
         <f t="shared" si="6"/>
@@ -5112,7 +5119,7 @@
       </c>
       <c r="J27" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5133,11 +5140,11 @@
         <v>United Airlines Holdings, Inc. (NASDAQGS:UAL)</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G28" s="34" t="str">
         <f t="shared" si="4"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H28" s="34" t="str">
         <f t="shared" si="5"/>
@@ -5149,7 +5156,7 @@
       </c>
       <c r="J28" s="34" t="str">
         <f t="shared" si="7"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5170,7 +5177,7 @@
         <v>Robinhood Markets, Inc. (NASDAQGS:HOOD)</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="G29" s="34" t="str">
         <f t="shared" ref="G29:G43" si="8">IF(COUNTIF(A:A,$F29)&gt;0,"Y","N")</f>
@@ -5178,7 +5185,7 @@
       </c>
       <c r="H29" s="34" t="str">
         <f t="shared" ref="H29:H43" si="9">IF(COUNTIF(B:B,$F29)&gt;0,"Y","N")</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I29" s="34" t="str">
         <f t="shared" ref="I29:I43" si="10">IF(COUNTIF(C:C,$F29)&gt;0,"Y","N")</f>
@@ -5186,7 +5193,7 @@
       </c>
       <c r="J29" s="34" t="str">
         <f t="shared" ref="J29:J43" si="11">IF(COUNTIF(D:D,$F29)&gt;0,"Y","N")</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5207,15 +5214,15 @@
         <v>Madrigal Pharmaceuticals, Inc. (NASDAQGS:MDGL)</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>126</v>
+        <v>9</v>
       </c>
       <c r="G30" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H30" s="34" t="str">
         <f t="shared" si="9"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I30" s="34" t="str">
         <f t="shared" si="10"/>
@@ -5223,7 +5230,7 @@
       </c>
       <c r="J30" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5244,7 +5251,7 @@
         <v>Avis Budget Group, Inc. (NASDAQGS:CAR)</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G31" s="34" t="str">
         <f t="shared" si="8"/>
@@ -5252,7 +5259,7 @@
       </c>
       <c r="H31" s="34" t="str">
         <f t="shared" si="9"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I31" s="34" t="str">
         <f t="shared" si="10"/>
@@ -5260,7 +5267,7 @@
       </c>
       <c r="J31" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5281,11 +5288,11 @@
         <v>Carvana Co. (NYSE:CVNA)</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="G32" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H32" s="34" t="str">
         <f t="shared" si="9"/>
@@ -5293,11 +5300,11 @@
       </c>
       <c r="I32" s="34" t="str">
         <f t="shared" si="10"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="J32" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5318,11 +5325,11 @@
         <v>Talen Energy Corporation (NASDAQGS:TLN)</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>195</v>
+        <v>55</v>
       </c>
       <c r="G33" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H33" s="34" t="str">
         <f t="shared" si="9"/>
@@ -5355,15 +5362,15 @@
         <v>Chart Industries, Inc. (NYSE:GTLS)</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G34" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H34" s="34" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I34" s="34" t="str">
         <f t="shared" si="10"/>
@@ -5371,7 +5378,7 @@
       </c>
       <c r="J34" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5392,7 +5399,7 @@
         <v>PROCEPT BioRobotics Corporation (NASDAQGM:PRCT)</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G35" s="34" t="str">
         <f t="shared" si="8"/>
@@ -5408,7 +5415,7 @@
       </c>
       <c r="J35" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5429,15 +5436,15 @@
         <v>Freshworks Inc. (NASDAQGS:FRSH)</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="G36" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H36" s="34" t="str">
         <f t="shared" si="9"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I36" s="34" t="str">
         <f t="shared" si="10"/>
@@ -5445,7 +5452,7 @@
       </c>
       <c r="J36" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5466,15 +5473,15 @@
         <v>Carnival Corporation &amp; plc (NYSE:CCL)</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G37" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H37" s="34" t="str">
         <f t="shared" si="9"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="I37" s="34" t="str">
         <f t="shared" si="10"/>
@@ -5503,23 +5510,23 @@
         <v>GameStop Corp. (NYSE:GME)</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="G38" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H38" s="34" t="str">
         <f t="shared" si="9"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="I38" s="34" t="str">
         <f t="shared" si="10"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="J38" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5540,11 +5547,11 @@
         <v>Twilio Inc. (NYSE:TWLO)</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G39" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H39" s="34" t="str">
         <f t="shared" si="9"/>
@@ -5556,7 +5563,7 @@
       </c>
       <c r="J39" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5577,11 +5584,11 @@
         <v>Lumen Technologies, Inc. (NYSE:LUMN)</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="G40" s="34" t="str">
         <f t="shared" si="8"/>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="H40" s="34" t="str">
         <f t="shared" si="9"/>
@@ -5593,7 +5600,7 @@
       </c>
       <c r="J40" s="34" t="str">
         <f t="shared" si="11"/>
-        <v>Y</v>
+        <v>N</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5613,25 +5620,11 @@
         <f>Mom1m.Vol1m!A48</f>
         <v>0</v>
       </c>
-      <c r="F41" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>Y</v>
-      </c>
-      <c r="H41" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v>Y</v>
-      </c>
-      <c r="I41" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
-      </c>
-      <c r="J41" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
+      <c r="F41" s="14"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="32">
@@ -5650,25 +5643,11 @@
         <f>Mom1m.Vol1m!A49</f>
         <v>0</v>
       </c>
-      <c r="F42" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>N</v>
-      </c>
-      <c r="H42" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v>N</v>
-      </c>
-      <c r="I42" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
-      </c>
-      <c r="J42" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
+      <c r="F42" s="14"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="32">
@@ -5687,25 +5666,11 @@
         <f>Mom1m.Vol1m!A50</f>
         <v>0</v>
       </c>
-      <c r="F43" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G43" s="34" t="str">
-        <f t="shared" si="8"/>
-        <v>Y</v>
-      </c>
-      <c r="H43" s="34" t="str">
-        <f t="shared" si="9"/>
-        <v>Y</v>
-      </c>
-      <c r="I43" s="34" t="str">
-        <f t="shared" si="10"/>
-        <v>N</v>
-      </c>
-      <c r="J43" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v>Y</v>
-      </c>
+      <c r="F43" s="14"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="32">
@@ -8414,9 +8379,9 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="str">
-        <f>[0]!SNL.Clients.Office.Excel.Functions.SPGTable($B$9:$B$44,$C$6:$J$6,,"Options:Curr=USD,Mag=Standard,ConvMethod=R,FilingVer=Current/Restated")</f>
-        <v>SPGTable</v>
+      <c r="A4" t="e">
+        <f ca="1">[0]!SNL.Clients.Office.Excel.Functions.SPGTable($B$9:$B$44,$C$6:$J$6,,"Options:Curr=USD,Mag=Standard,ConvMethod=R,FilingVer=Current/Restated")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -10143,7 +10108,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A94"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -10293,7 +10258,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="3">
-        <v>8377.2736066100006</v>
+        <v>8824.6193735399993</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>150</v>
@@ -10308,10 +10273,10 @@
         <v>207</v>
       </c>
       <c r="I10" s="3">
-        <v>128.133217</v>
+        <v>100.145985</v>
       </c>
       <c r="J10" s="3">
-        <v>88.854222888922692</v>
+        <v>90.30280607862889</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -10325,7 +10290,7 @@
         <v>21</v>
       </c>
       <c r="D11" s="3">
-        <v>3898.3285252000001</v>
+        <v>3704.7029361999998</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>150</v>
@@ -10340,10 +10305,10 @@
         <v>207</v>
       </c>
       <c r="I11" s="3">
-        <v>170.609319</v>
+        <v>87.827224999999999</v>
       </c>
       <c r="J11" s="3">
-        <v>59.570495208286701</v>
+        <v>59.942252965100508</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -10357,7 +10322,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="3">
-        <v>91226.527518600007</v>
+        <v>83785.774669649996</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>150</v>
@@ -10372,10 +10337,10 @@
         <v>207</v>
       </c>
       <c r="I12" s="3">
-        <v>710.93341499999997</v>
+        <v>634.28972099999999</v>
       </c>
       <c r="J12" s="3">
-        <v>44.411015090786535</v>
+        <v>45.62871390935743</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -10389,7 +10354,7 @@
         <v>20</v>
       </c>
       <c r="D13" s="3">
-        <v>6756.3476055600004</v>
+        <v>7187.85616854</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>157</v>
@@ -10404,10 +10369,10 @@
         <v>208</v>
       </c>
       <c r="I13" s="3">
-        <v>212.09439499999999</v>
+        <v>143.40438700000001</v>
       </c>
       <c r="J13" s="3">
-        <v>40.665849142204856</v>
+        <v>40.634628488213778</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -10421,7 +10386,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="3">
-        <v>76266.758955519996</v>
+        <v>74153.801216599997</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>157</v>
@@ -10436,10 +10401,10 @@
         <v>209</v>
       </c>
       <c r="I14" s="3">
-        <v>163.66626299999999</v>
+        <v>121.441388</v>
       </c>
       <c r="J14" s="3">
-        <v>27.937580147600627</v>
+        <v>27.847097471959632</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -10453,7 +10418,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="3">
-        <v>2862.0414243999999</v>
+        <v>2653.3770202800001</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>140</v>
@@ -10468,10 +10433,10 @@
         <v>211</v>
       </c>
       <c r="I15" s="3">
-        <v>244.63768099999999</v>
+        <v>189.238845</v>
       </c>
       <c r="J15" s="3">
-        <v>25.600516940512797</v>
+        <v>26.118426087199705</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -10485,7 +10450,7 @@
         <v>20</v>
       </c>
       <c r="D16" s="3">
-        <v>4828.3049805000001</v>
+        <v>4770.2050450500001</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>170</v>
@@ -10500,10 +10465,10 @@
         <v>213</v>
       </c>
       <c r="I16" s="3">
-        <v>397.93388399999998</v>
+        <v>359.65251000000001</v>
       </c>
       <c r="J16" s="3">
-        <v>24.439643246789938</v>
+        <v>24.747947373156649</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -10517,7 +10482,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>25752.064127549998</v>
+        <v>24702.106102850001</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>170</v>
@@ -10532,10 +10497,10 @@
         <v>215</v>
       </c>
       <c r="I17" s="3">
-        <v>190.781126</v>
+        <v>178.925456</v>
       </c>
       <c r="J17" s="3">
-        <v>21.976076106967369</v>
+        <v>22.039981725285759</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -10549,7 +10514,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="3">
-        <v>33330.431667359997</v>
+        <v>33466.652586420001</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>145</v>
@@ -10564,10 +10529,10 @@
         <v>217</v>
       </c>
       <c r="I18" s="3">
-        <v>725.72429199999999</v>
+        <v>639.82954600000005</v>
       </c>
       <c r="J18" s="3">
-        <v>20.537252372687107</v>
+        <v>20.410308977481918</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -10581,7 +10546,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="3">
-        <v>12457.6176168</v>
+        <v>12971.103647600001</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>145</v>
@@ -10596,10 +10561,10 @@
         <v>218</v>
       </c>
       <c r="I19" s="3">
-        <v>128.688525</v>
+        <v>89.869281000000001</v>
       </c>
       <c r="J19" s="3">
-        <v>20.636763927944163</v>
+        <v>20.560049734220922</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -10613,7 +10578,7 @@
         <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>20900.433255349999</v>
+        <v>21987.067350969999</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>157</v>
@@ -10628,10 +10593,10 @@
         <v>208</v>
       </c>
       <c r="I20" s="3">
-        <v>153.717118</v>
+        <v>85.850809999999996</v>
       </c>
       <c r="J20" s="3">
-        <v>20.188174402874466</v>
+        <v>19.361270276013631</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -10645,7 +10610,7 @@
         <v>21</v>
       </c>
       <c r="D21" s="3">
-        <v>5860.4394345600003</v>
+        <v>5899.4421689600003</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>142</v>
@@ -10660,10 +10625,10 @@
         <v>220</v>
       </c>
       <c r="I21" s="3">
-        <v>328.25732900000003</v>
+        <v>306.917756</v>
       </c>
       <c r="J21" s="3">
-        <v>19.713970949602619</v>
+        <v>19.907401595205904</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -10677,7 +10642,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="3">
-        <v>5534.0759576199998</v>
+        <v>7039.3970530799998</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>142</v>
@@ -10692,10 +10657,10 @@
         <v>222</v>
       </c>
       <c r="I22" s="3">
-        <v>208.15085199999999</v>
+        <v>264.89241199999998</v>
       </c>
       <c r="J22" s="3">
-        <v>21.021955198558683</v>
+        <v>21.949620111694486</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -10709,7 +10674,7 @@
         <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>6881.2732956</v>
+        <v>7898.3168329999999</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>150</v>
@@ -10724,10 +10689,10 @@
         <v>224</v>
       </c>
       <c r="I23" s="3">
-        <v>157.281553</v>
+        <v>168.185158</v>
       </c>
       <c r="J23" s="3">
-        <v>20.601327502436856</v>
+        <v>21.33809963998403</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -10741,7 +10706,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>7763.4449254399997</v>
+        <v>7645.9640166400004</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>145</v>
@@ -10756,10 +10721,10 @@
         <v>225</v>
       </c>
       <c r="I24" s="3">
-        <v>107.325058</v>
+        <v>92.205957999999995</v>
       </c>
       <c r="J24" s="3">
-        <v>16.07074993397795</v>
+        <v>16.358816928740637</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -10773,7 +10738,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="3">
-        <v>5090.7826275199996</v>
+        <v>4993.0440691200001</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>150</v>
@@ -10788,10 +10753,10 @@
         <v>207</v>
       </c>
       <c r="I25" s="3">
-        <v>429.94186100000002</v>
+        <v>419.76744200000002</v>
       </c>
       <c r="J25" s="3">
-        <v>15.914781029456588</v>
+        <v>15.891436477800255</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -10805,7 +10770,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3">
-        <v>5581.0565401800004</v>
+        <v>5876.5033320299999</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>145</v>
@@ -10820,10 +10785,10 @@
         <v>227</v>
       </c>
       <c r="I26" s="3">
-        <v>253.36146299999999</v>
+        <v>252.15655000000001</v>
       </c>
       <c r="J26" s="3">
-        <v>15.904953206231795</v>
+        <v>15.892107718061371</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -10837,7 +10802,7 @@
         <v>20</v>
       </c>
       <c r="D27" s="3">
-        <v>3483.9077062400002</v>
+        <v>3213.4926262399999</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>140</v>
@@ -10852,10 +10817,10 @@
         <v>229</v>
       </c>
       <c r="I27" s="3">
-        <v>237.89485999999999</v>
+        <v>215.902647</v>
       </c>
       <c r="J27" s="3">
-        <v>15.192144939866942</v>
+        <v>15.477699640323989</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -10869,7 +10834,7 @@
         <v>21</v>
       </c>
       <c r="D28" s="3">
-        <v>5033.22311352</v>
+        <v>4994.4728928000004</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>142</v>
@@ -10884,10 +10849,10 @@
         <v>230</v>
       </c>
       <c r="I28" s="3">
-        <v>174.19859299999999</v>
+        <v>151.62689800000001</v>
       </c>
       <c r="J28" s="3">
-        <v>13.348306940393897</v>
+        <v>13.280990654523112</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -10898,10 +10863,10 @@
         <v>5148548</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D29" s="3">
-        <v>146590.65135</v>
+        <v>152809.64868000001</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>150</v>
@@ -10916,10 +10881,10 @@
         <v>207</v>
       </c>
       <c r="I29" s="3">
-        <v>235.15625</v>
+        <v>230.932412</v>
       </c>
       <c r="J29" s="3">
-        <v>13.405871996600446</v>
+        <v>13.404955070046226</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -10933,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="3">
-        <v>5020.1123728000002</v>
+        <v>4740.1890561600003</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>145</v>
@@ -10948,10 +10913,10 @@
         <v>231</v>
       </c>
       <c r="I30" s="3">
-        <v>352.08333299999998</v>
+        <v>311.44578300000001</v>
       </c>
       <c r="J30" s="3">
-        <v>13.262455189463177</v>
+        <v>13.347492714106114</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -10965,7 +10930,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="3">
-        <v>31322.140716000002</v>
+        <v>31845.053397</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>140</v>
@@ -10980,10 +10945,10 @@
         <v>232</v>
       </c>
       <c r="I31" s="3">
-        <v>139.838832</v>
+        <v>140.631213</v>
       </c>
       <c r="J31" s="3">
-        <v>12.634922009250973</v>
+        <v>12.624817680141446</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -10997,7 +10962,7 @@
         <v>20</v>
       </c>
       <c r="D32" s="3">
-        <v>3828.3194343800001</v>
+        <v>4817.5589816800002</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>150</v>
@@ -11012,10 +10977,10 @@
         <v>233</v>
       </c>
       <c r="I32" s="3">
-        <v>215.49906999999999</v>
+        <v>280.73721799999998</v>
       </c>
       <c r="J32" s="3">
-        <v>12.18189581730992</v>
+        <v>12.435080900044809</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -11029,7 +10994,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="3">
-        <v>3915.0950181200001</v>
+        <v>4141.86576848</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>170</v>
@@ -11044,10 +11009,10 @@
         <v>234</v>
       </c>
       <c r="I33" s="3">
-        <v>129.465542</v>
+        <v>136.276523</v>
       </c>
       <c r="J33" s="3">
-        <v>11.866637890812685</v>
+        <v>11.935537875512104</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -11061,7 +11026,7 @@
         <v>2</v>
       </c>
       <c r="D34" s="3">
-        <v>16614.058529999998</v>
+        <v>16144.281702599999</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>145</v>
@@ -11076,10 +11041,10 @@
         <v>227</v>
       </c>
       <c r="I34" s="3">
-        <v>323.110592</v>
+        <v>289.011596</v>
       </c>
       <c r="J34" s="3">
-        <v>12.174572782231916</v>
+        <v>12.242831740377271</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -11093,7 +11058,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="3">
-        <v>4923.7651845700002</v>
+        <v>5352.85845161</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>145</v>
@@ -11108,10 +11073,10 @@
         <v>235</v>
       </c>
       <c r="I35" s="3">
-        <v>96.753039000000001</v>
+        <v>116.88290600000001</v>
       </c>
       <c r="J35" s="3">
-        <v>11.5655271995878</v>
+        <v>11.620721222540663</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -11125,7 +11090,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="3">
-        <v>52603.339278799998</v>
+        <v>47892.872579199997</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>140</v>
@@ -11140,10 +11105,10 @@
         <v>236</v>
       </c>
       <c r="I36" s="3">
-        <v>228.37394599999999</v>
+        <v>182.676119</v>
       </c>
       <c r="J36" s="3">
-        <v>10.666133911242257</v>
+        <v>10.574259760551902</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -11157,7 +11122,7 @@
         <v>20</v>
       </c>
       <c r="D37" s="3">
-        <v>32397.709001849998</v>
+        <v>33184.447365059998</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>157</v>
@@ -11172,10 +11137,10 @@
         <v>237</v>
       </c>
       <c r="I37" s="3">
-        <v>342.09891399999998</v>
+        <v>302.78969999999998</v>
       </c>
       <c r="J37" s="3">
-        <v>10.83631393956197</v>
+        <v>10.945061758047435</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -11189,7 +11154,7 @@
         <v>20</v>
       </c>
       <c r="D38" s="3">
-        <v>6120.4830000000002</v>
+        <v>5974.8389999999999</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>150</v>
@@ -11204,10 +11169,10 @@
         <v>238</v>
       </c>
       <c r="I38" s="3">
-        <v>103.44827600000001</v>
+        <v>96.542372999999998</v>
       </c>
       <c r="J38" s="3">
-        <v>10.510692653820383</v>
+        <v>10.629082679471342</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -11221,7 +11186,7 @@
         <v>21</v>
       </c>
       <c r="D39" s="3">
-        <v>11627.93167428</v>
+        <v>13637.57420784</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>140</v>
@@ -11236,10 +11201,10 @@
         <v>239</v>
       </c>
       <c r="I39" s="3">
-        <v>431.050228</v>
+        <v>511.65919300000002</v>
       </c>
       <c r="J39" s="3">
-        <v>11.006805577219584</v>
+        <v>11.501162163645699</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -11253,7 +11218,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="3">
-        <v>7578.0259121500003</v>
+        <v>7157.9574733299996</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>142</v>
@@ -11268,10 +11233,10 @@
         <v>240</v>
       </c>
       <c r="I40" s="3">
-        <v>77.669257999999999</v>
+        <v>53.993056000000003</v>
       </c>
       <c r="J40" s="3">
-        <v>10.028936666619311</v>
+        <v>10.063319205799433</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -11285,7 +11250,7 @@
         <v>2</v>
       </c>
       <c r="D41" s="3">
-        <v>3697.7743584999998</v>
+        <v>3597.2281343700001</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>140</v>
@@ -11300,10 +11265,10 @@
         <v>241</v>
       </c>
       <c r="I41" s="3">
-        <v>104.12844</v>
+        <v>91.041482999999999</v>
       </c>
       <c r="J41" s="3">
-        <v>9.9974563974376327</v>
+        <v>10.045732390627247</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -11317,7 +11282,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="3">
-        <v>3902.8175060399999</v>
+        <v>3879.6836505299998</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>140</v>
@@ -11332,10 +11297,10 @@
         <v>243</v>
       </c>
       <c r="I42" s="3">
-        <v>189.98988900000001</v>
+        <v>178.146342</v>
       </c>
       <c r="J42" s="3">
-        <v>9.9484282286891172</v>
+        <v>9.9573430002081302</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -11349,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="D43" s="3">
-        <v>55089.429380480004</v>
+        <v>54381.758844960001</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>1</v>
@@ -11364,10 +11329,10 @@
         <v>244</v>
       </c>
       <c r="I43" s="3">
-        <v>364.48651799999999</v>
+        <v>340.57331900000003</v>
       </c>
       <c r="J43" s="3">
-        <v>9.6913673307726143</v>
+        <v>9.7439697674560239</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -11381,7 +11346,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="3">
-        <v>7996.7204984800001</v>
+        <v>7448.7218856400004</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>170</v>
@@ -11396,10 +11361,10 @@
         <v>245</v>
       </c>
       <c r="I44" s="3">
-        <v>525.39682500000004</v>
+        <v>395.94594599999999</v>
       </c>
       <c r="J44" s="3">
-        <v>9.5493217010061606</v>
+        <v>9.5394428186968092</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -11413,7 +11378,7 @@
         <v>20</v>
       </c>
       <c r="D45" s="3">
-        <v>4818.35070808</v>
+        <v>4966.3581146400002</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>150</v>
@@ -11428,10 +11393,10 @@
         <v>207</v>
       </c>
       <c r="I45" s="3">
-        <v>90.291262000000003</v>
+        <v>94.039013999999995</v>
       </c>
       <c r="J45" s="3">
-        <v>8.8257777128821147</v>
+        <v>8.8302479099278308</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -11445,7 +11410,7 @@
         <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>4374.5235063199998</v>
+        <v>4562.7902632400001</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>149</v>
@@ -11460,10 +11425,10 @@
         <v>247</v>
       </c>
       <c r="I46" s="3">
-        <v>116.187595</v>
+        <v>125.491679</v>
       </c>
       <c r="J46" s="3">
-        <v>4.9928257586123932</v>
+        <v>5.135914784091808</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -11477,7 +11442,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="3">
-        <v>18608.592341439999</v>
+        <v>18672.616399039998</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>145</v>
@@ -11492,10 +11457,10 @@
         <v>249</v>
       </c>
       <c r="I47" s="3">
-        <v>104.108146</v>
+        <v>92.762722999999994</v>
       </c>
       <c r="J47" s="3">
-        <v>8.5933518621308256</v>
+        <v>8.5502131792229452</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -11509,7 +11474,7 @@
         <v>22</v>
       </c>
       <c r="D48" s="3">
-        <v>3559.4202757200001</v>
+        <v>3827.6889802800001</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>150</v>
@@ -11524,10 +11489,10 @@
         <v>250</v>
       </c>
       <c r="I48" s="3">
-        <v>62.611012000000002</v>
+        <v>91.723466000000002</v>
       </c>
       <c r="J48" s="3">
-        <v>8.8362754202612983</v>
+        <v>8.892055460919849</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -11541,7 +11506,7 @@
         <v>20</v>
       </c>
       <c r="D49" s="3">
-        <v>3476355.5</v>
+        <v>3385742.5</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>150</v>
@@ -11556,10 +11521,10 @@
         <v>233</v>
       </c>
       <c r="I49" s="3">
-        <v>197.11570699999999</v>
+        <v>195.627072</v>
       </c>
       <c r="J49" s="3">
-        <v>8.0627292955660561</v>
+        <v>8.0056973442286381</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -11573,7 +11538,7 @@
         <v>20</v>
       </c>
       <c r="D50" s="3">
-        <v>5404.2466934399999</v>
+        <v>5437.3443098099997</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>150</v>
@@ -11588,10 +11553,10 @@
         <v>233</v>
       </c>
       <c r="I50" s="3">
-        <v>131.563636</v>
+        <v>120.57608500000001</v>
       </c>
       <c r="J50" s="3">
-        <v>8.1423565377954219</v>
+        <v>8.1451877822368886</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -11605,7 +11570,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="3">
-        <v>5225.2204254600001</v>
+        <v>5526.5889870800002</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>149</v>
@@ -11620,10 +11585,10 @@
         <v>247</v>
       </c>
       <c r="I51" s="3">
-        <v>136.08063999999999</v>
+        <v>94.502488</v>
       </c>
       <c r="J51" s="3">
-        <v>7.8799292985386344</v>
+        <v>7.3735508522640441</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -11637,7 +11602,7 @@
         <v>2</v>
       </c>
       <c r="D52" s="3">
-        <v>24276.32</v>
+        <v>24730.720000000001</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>157</v>
@@ -11652,10 +11617,10 @@
         <v>251</v>
       </c>
       <c r="I52" s="3">
-        <v>201.198027</v>
+        <v>184.203655</v>
       </c>
       <c r="J52" s="3">
-        <v>7.9581708834630813</v>
+        <v>7.9489899848588657</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -11669,7 +11634,7 @@
         <v>2</v>
       </c>
       <c r="D53" s="3">
-        <v>7519.4915472599996</v>
+        <v>7129.3936405699997</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>145</v>
@@ -11684,10 +11649,10 @@
         <v>241</v>
       </c>
       <c r="I53" s="3">
-        <v>176.539873</v>
+        <v>162.19347400000001</v>
       </c>
       <c r="J53" s="3">
-        <v>7.8303171958643585</v>
+        <v>7.8429469450834111</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -11701,7 +11666,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="3">
-        <v>18022.993754250001</v>
+        <v>17704.191066480002</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>145</v>
@@ -11716,10 +11681,10 @@
         <v>253</v>
       </c>
       <c r="I54" s="3">
-        <v>65.943752000000003</v>
+        <v>61.944156999999997</v>
       </c>
       <c r="J54" s="3">
-        <v>7.3171990479243849</v>
+        <v>7.3198650518231556</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -11733,7 +11698,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="3">
-        <v>31350.953845399999</v>
+        <v>29759.760801960001</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>150</v>
@@ -11748,10 +11713,10 @@
         <v>207</v>
       </c>
       <c r="I55" s="3">
-        <v>106.63733000000001</v>
+        <v>54.640068999999997</v>
       </c>
       <c r="J55" s="3">
-        <v>7.4573129659585122</v>
+        <v>7.436629497643982</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -11765,7 +11730,7 @@
         <v>2</v>
       </c>
       <c r="D56" s="3">
-        <v>16292.303863880001</v>
+        <v>15491.14443712</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>150</v>
@@ -11780,10 +11745,10 @@
         <v>254</v>
       </c>
       <c r="I56" s="3">
-        <v>191.477587</v>
+        <v>162.06174799999999</v>
       </c>
       <c r="J56" s="3">
-        <v>7.3378710702468792</v>
+        <v>7.4239344293888374</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -11797,7 +11762,7 @@
         <v>22</v>
       </c>
       <c r="D57" s="3">
-        <v>5006.7455585400003</v>
+        <v>4753.8079878299995</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>142</v>
@@ -11812,10 +11777,10 @@
         <v>230</v>
       </c>
       <c r="I57" s="3">
-        <v>434.84848499999998</v>
+        <v>427.82152200000002</v>
       </c>
       <c r="J57" s="3">
-        <v>7.282833036468805</v>
+        <v>7.3565111412629962</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -11829,7 +11794,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="3">
-        <v>64359.344515199999</v>
+        <v>61126.532745600001</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>145</v>
@@ -11844,10 +11809,10 @@
         <v>255</v>
       </c>
       <c r="I58" s="3">
-        <v>107.700497</v>
+        <v>71.786156000000005</v>
       </c>
       <c r="J58" s="3">
-        <v>7.162843501360161</v>
+        <v>7.0015424849550545</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -11861,7 +11826,7 @@
         <v>20</v>
       </c>
       <c r="D59" s="3">
-        <v>3153.6458392499999</v>
+        <v>3206.9372107499998</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>157</v>
@@ -11876,10 +11841,10 @@
         <v>256</v>
       </c>
       <c r="I59" s="3">
-        <v>103.833333</v>
+        <v>104.326397</v>
       </c>
       <c r="J59" s="3">
-        <v>7.0701365501989564</v>
+        <v>7.082166926874824</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -11893,7 +11858,7 @@
         <v>20</v>
       </c>
       <c r="D60" s="3">
-        <v>3021.4312930199999</v>
+        <v>3115.05597438</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>142</v>
@@ -11908,10 +11873,10 @@
         <v>240</v>
       </c>
       <c r="I60" s="3">
-        <v>168.687783</v>
+        <v>173.30357100000001</v>
       </c>
       <c r="J60" s="3">
-        <v>7.0087370387899366</v>
+        <v>7.0463711340278161</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -11925,7 +11890,7 @@
         <v>20</v>
       </c>
       <c r="D61" s="3">
-        <v>111856.10419124</v>
+        <v>113010.539997</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>150</v>
@@ -11940,10 +11905,10 @@
         <v>250</v>
       </c>
       <c r="I61" s="3">
-        <v>744.03646500000002</v>
+        <v>780.392157</v>
       </c>
       <c r="J61" s="3">
-        <v>7.1660838424563664</v>
+        <v>7.2371982670428405</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -11957,7 +11922,7 @@
         <v>20</v>
       </c>
       <c r="D62" s="3">
-        <v>7612.3932420000001</v>
+        <v>8130.5142480000004</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>150</v>
@@ -11972,10 +11937,10 @@
         <v>233</v>
       </c>
       <c r="I62" s="3">
-        <v>143.31210200000001</v>
+        <v>156.73833300000001</v>
       </c>
       <c r="J62" s="3">
-        <v>6.90453293956379</v>
+        <v>6.8819752418554963</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -11989,7 +11954,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="3">
-        <v>8998.5428802000006</v>
+        <v>9894.6633330000004</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>142</v>
@@ -12004,10 +11969,10 @@
         <v>207</v>
       </c>
       <c r="I63" s="3">
-        <v>96.254071999999994</v>
+        <v>117.659138</v>
       </c>
       <c r="J63" s="3">
-        <v>6.7545635050503776</v>
+        <v>6.8263080978399557</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -12021,7 +11986,7 @@
         <v>22</v>
       </c>
       <c r="D64" s="3">
-        <v>3059.1366904299998</v>
+        <v>3150.32188675</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>142</v>
@@ -12036,10 +12001,10 @@
         <v>240</v>
       </c>
       <c r="I64" s="3">
-        <v>257.586973</v>
+        <v>259.46531800000002</v>
       </c>
       <c r="J64" s="3">
-        <v>6.7549465640217052</v>
+        <v>6.7869870871179945</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -12053,7 +12018,7 @@
         <v>20</v>
       </c>
       <c r="D65" s="3">
-        <v>14711.71908622</v>
+        <v>15446.655097119999</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>167</v>
@@ -12068,10 +12033,10 @@
         <v>257</v>
       </c>
       <c r="I65" s="3">
-        <v>250.30952400000001</v>
+        <v>251.73041900000001</v>
       </c>
       <c r="J65" s="3">
-        <v>6.6509109727537332</v>
+        <v>6.6901526438923646</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -12085,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="3">
-        <v>96246.991005200005</v>
+        <v>92101.170336399999</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>140</v>
@@ -12100,10 +12065,10 @@
         <v>258</v>
       </c>
       <c r="I66" s="3">
-        <v>166.026667</v>
+        <v>154.56761900000001</v>
       </c>
       <c r="J66" s="3">
-        <v>6.3487025094667127</v>
+        <v>6.3215191727617563</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -12117,7 +12082,7 @@
         <v>2</v>
       </c>
       <c r="D67" s="3">
-        <v>13658.78211</v>
+        <v>13568.43996</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>142</v>
@@ -12132,10 +12097,10 @@
         <v>259</v>
       </c>
       <c r="I67" s="3">
-        <v>111.22058800000001</v>
+        <v>100.929447</v>
       </c>
       <c r="J67" s="3">
-        <v>6.3645681702442181</v>
+        <v>6.3632809686833909</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -12149,7 +12114,7 @@
         <v>2</v>
       </c>
       <c r="D68" s="3">
-        <v>5314.0853671799996</v>
+        <v>5057.6415692999999</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>150</v>
@@ -12164,10 +12129,10 @@
         <v>207</v>
       </c>
       <c r="I68" s="3">
-        <v>158.13148799999999</v>
+        <v>152.36966799999999</v>
       </c>
       <c r="J68" s="3">
-        <v>7.6060935345945504</v>
+        <v>7.9077821112558571</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -12181,7 +12146,7 @@
         <v>20</v>
       </c>
       <c r="D69" s="3">
-        <v>6551.8316593999998</v>
+        <v>7235.62544394</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>170</v>
@@ -12196,10 +12161,10 @@
         <v>260</v>
       </c>
       <c r="I69" s="3">
-        <v>115.834119</v>
+        <v>124.60035499999999</v>
       </c>
       <c r="J69" s="3">
-        <v>5.8258399008704922</v>
+        <v>5.8892342685958887</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -12213,7 +12178,7 @@
         <v>20</v>
       </c>
       <c r="D70" s="3">
-        <v>4124.61945036</v>
+        <v>4014.44025336</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>142</v>
@@ -12228,10 +12193,10 @@
         <v>261</v>
       </c>
       <c r="I70" s="3">
-        <v>98.234879000000006</v>
+        <v>79.505145999999996</v>
       </c>
       <c r="J70" s="3">
-        <v>6.1855649957427632</v>
+        <v>5.7065610027019122</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -12245,7 +12210,7 @@
         <v>2</v>
       </c>
       <c r="D71" s="3">
-        <v>10214.339195799999</v>
+        <v>10209.976424119999</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>157</v>
@@ -12260,10 +12225,10 @@
         <v>262</v>
       </c>
       <c r="I71" s="3">
-        <v>90.927625000000006</v>
+        <v>70.634342000000004</v>
       </c>
       <c r="J71" s="3">
-        <v>6.0294058185462855</v>
+        <v>6.0097070952653482</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -12277,7 +12242,7 @@
         <v>20</v>
       </c>
       <c r="D72" s="3">
-        <v>13086.734041150001</v>
+        <v>13446.328510359999</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>142</v>
@@ -12292,10 +12257,10 @@
         <v>230</v>
       </c>
       <c r="I72" s="3">
-        <v>204.41115300000001</v>
+        <v>183.408748</v>
       </c>
       <c r="J72" s="3">
-        <v>6.0967654293149325</v>
+        <v>6.09625998924857</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -12309,7 +12274,7 @@
         <v>22</v>
       </c>
       <c r="D73" s="3">
-        <v>7608.6254760399997</v>
+        <v>7428.5540259500003</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>167</v>
@@ -12324,10 +12289,10 @@
         <v>264</v>
       </c>
       <c r="I73" s="3">
-        <v>126.20490599999999</v>
+        <v>113.399331</v>
       </c>
       <c r="J73" s="3">
-        <v>5.972180657031501</v>
+        <v>5.9699582418664656</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -12341,7 +12306,7 @@
         <v>20</v>
       </c>
       <c r="D74" s="3">
-        <v>3175.4412576</v>
+        <v>3387.0232810500002</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>142</v>
@@ -12356,10 +12321,10 @@
         <v>240</v>
       </c>
       <c r="I74" s="3">
-        <v>149.350649</v>
+        <v>159.344978</v>
       </c>
       <c r="J74" s="3">
-        <v>5.9580883856405791</v>
+        <v>5.9899185878568639</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -12373,7 +12338,7 @@
         <v>22</v>
       </c>
       <c r="D75" s="3">
-        <v>5064.3459359999997</v>
+        <v>5172.0173934000004</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>142</v>
@@ -12388,10 +12353,10 @@
         <v>265</v>
       </c>
       <c r="I75" s="3">
-        <v>164.780764</v>
+        <v>155.861884</v>
       </c>
       <c r="J75" s="3">
-        <v>5.9440928083438216</v>
+        <v>5.9638469225415882</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -12405,7 +12370,7 @@
         <v>2</v>
       </c>
       <c r="D76" s="3">
-        <v>9518.8725322600003</v>
+        <v>9671.8962463200005</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>162</v>
@@ -12420,10 +12385,10 @@
         <v>266</v>
       </c>
       <c r="I76" s="3">
-        <v>178.544341</v>
+        <v>165.699028</v>
       </c>
       <c r="J76" s="3">
-        <v>5.9478477994310657</v>
+        <v>5.9538913427318105</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -12437,7 +12402,7 @@
         <v>2</v>
       </c>
       <c r="D77" s="3">
-        <v>4340.2191887899999</v>
+        <v>4343.7161928699998</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>140</v>
@@ -12452,10 +12417,10 @@
         <v>267</v>
       </c>
       <c r="I77" s="3">
-        <v>115.941714</v>
+        <v>111.966724</v>
       </c>
       <c r="J77" s="3">
-        <v>5.8795308392472139</v>
+        <v>5.9350637963101747</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -12469,7 +12434,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="3">
-        <v>5160.1279602499999</v>
+        <v>5133.8799105099997</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>142</v>
@@ -12484,10 +12449,10 @@
         <v>230</v>
       </c>
       <c r="I78" s="3">
-        <v>590.89456900000005</v>
+        <v>431.23456800000002</v>
       </c>
       <c r="J78" s="3">
-        <v>5.8572452024276913</v>
+        <v>5.4421323994470079</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -12501,7 +12466,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="3">
-        <v>10893.2303214</v>
+        <v>10903.90995897</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>1</v>
@@ -12516,10 +12481,10 @@
         <v>268</v>
       </c>
       <c r="I79" s="3">
-        <v>286.64259900000002</v>
+        <v>260.05037800000002</v>
       </c>
       <c r="J79" s="3">
-        <v>6.0157358255120386</v>
+        <v>6.1404728775489197</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -12533,7 +12498,7 @@
         <v>22</v>
       </c>
       <c r="D80" s="3">
-        <v>8395.3246467999998</v>
+        <v>8460.8278300000002</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>150</v>
@@ -12548,10 +12513,10 @@
         <v>207</v>
       </c>
       <c r="I80" s="3">
-        <v>92.939068000000006</v>
+        <v>95.003595000000004</v>
       </c>
       <c r="J80" s="3">
-        <v>5.8000776184292686</v>
+        <v>5.8244615946427913</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -12565,7 +12530,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="3">
-        <v>11077.7856061</v>
+        <v>11226.63239124</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>140</v>
@@ -12580,10 +12545,10 @@
         <v>269</v>
       </c>
       <c r="I81" s="3">
-        <v>148.600909</v>
+        <v>128.23193900000001</v>
       </c>
       <c r="J81" s="3">
-        <v>5.6244152511935113</v>
+        <v>5.584017273473167</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -12597,7 +12562,7 @@
         <v>20</v>
       </c>
       <c r="D82" s="3">
-        <v>6035.4322635500002</v>
+        <v>5972.16326725</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>140</v>
@@ -12612,10 +12577,10 @@
         <v>270</v>
       </c>
       <c r="I82" s="3">
-        <v>200.51995700000001</v>
+        <v>199.79956799999999</v>
       </c>
       <c r="J82" s="3">
-        <v>5.6713228611633211</v>
+        <v>5.769900690179381</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -12629,7 +12594,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="3">
-        <v>17422.591751479998</v>
+        <v>17501.00157466</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>140</v>
@@ -12644,10 +12609,10 @@
         <v>271</v>
       </c>
       <c r="I83" s="3">
-        <v>146.987225</v>
+        <v>150.88754399999999</v>
       </c>
       <c r="J83" s="3">
-        <v>5.6366816131763038</v>
+        <v>5.6558749190470667</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -12661,7 +12626,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="3">
-        <v>3334.1199318899999</v>
+        <v>3384.25127484</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>142</v>
@@ -12676,10 +12641,10 @@
         <v>230</v>
       </c>
       <c r="I84" s="3">
-        <v>99.492385999999996</v>
+        <v>82.909546000000006</v>
       </c>
       <c r="J84" s="3">
-        <v>5.6274965505150014</v>
+        <v>5.6327160117997606</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -12693,7 +12658,7 @@
         <v>2</v>
       </c>
       <c r="D85" s="3">
-        <v>4541.6475094400002</v>
+        <v>4712.3955085600001</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>157</v>
@@ -12708,10 +12673,10 @@
         <v>251</v>
       </c>
       <c r="I85" s="3">
-        <v>117.16329</v>
+        <v>114.09966</v>
       </c>
       <c r="J85" s="3">
-        <v>5.19316089939365</v>
+        <v>5.2704780475413173</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -12725,7 +12690,7 @@
         <v>2</v>
       </c>
       <c r="D86" s="3">
-        <v>7935.7577760000004</v>
+        <v>7916.46947585</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>142</v>
@@ -12740,10 +12705,10 @@
         <v>261</v>
       </c>
       <c r="I86" s="3">
-        <v>128.13688200000001</v>
+        <v>120.558882</v>
       </c>
       <c r="J86" s="3">
-        <v>5.4427895776900677</v>
+        <v>5.4045334599283876</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -12757,7 +12722,7 @@
         <v>22</v>
       </c>
       <c r="D87" s="3">
-        <v>3175.86766889</v>
+        <v>3242.9692274700001</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>142</v>
@@ -12772,10 +12737,10 @@
         <v>240</v>
       </c>
       <c r="I87" s="3">
-        <v>172.542135</v>
+        <v>193.12130199999999</v>
       </c>
       <c r="J87" s="3">
-        <v>5.5170433115765558</v>
+        <v>5.5963360306299128</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -12789,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="D88" s="3">
-        <v>4833.4454624399996</v>
+        <v>4730.1081568999998</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>157</v>
@@ -12804,10 +12769,10 @@
         <v>272</v>
       </c>
       <c r="I88" s="3">
-        <v>120.756193</v>
+        <v>98.490656000000001</v>
       </c>
       <c r="J88" s="3">
-        <v>5.3292004297718991</v>
+        <v>5.2993306478922255</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -12821,7 +12786,7 @@
         <v>21</v>
       </c>
       <c r="D89" s="3">
-        <v>6028.7613829800002</v>
+        <v>6043.42990216</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>142</v>
@@ -12836,10 +12801,10 @@
         <v>240</v>
       </c>
       <c r="I89" s="3">
-        <v>127.161469</v>
+        <v>122.10242599999999</v>
       </c>
       <c r="J89" s="3">
-        <v>5.3821355734757192</v>
+        <v>5.4213921341439741</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -12853,7 +12818,7 @@
         <v>20</v>
       </c>
       <c r="D90" s="3">
-        <v>22081.80168416</v>
+        <v>22150.452508480001</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>142</v>
@@ -12868,10 +12833,10 @@
         <v>273</v>
       </c>
       <c r="I90" s="3">
-        <v>204.10909100000001</v>
+        <v>186.99965800000001</v>
       </c>
       <c r="J90" s="3">
-        <v>5.4588313737280005</v>
+        <v>5.4663341692923284</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -12885,7 +12850,7 @@
         <v>22</v>
       </c>
       <c r="D91" s="3">
-        <v>2473.0004686000002</v>
+        <v>2569.1663865</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>142</v>
@@ -12900,10 +12865,10 @@
         <v>230</v>
       </c>
       <c r="I91" s="3">
-        <v>152.674419</v>
+        <v>127.226975</v>
       </c>
       <c r="J91" s="3">
-        <v>5.5068977922474911</v>
+        <v>5.5291901366744094</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -12917,7 +12882,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="3">
-        <v>27565.85040825</v>
+        <v>27737.12791015</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>150</v>
@@ -12932,10 +12897,10 @@
         <v>250</v>
       </c>
       <c r="I92" s="3">
-        <v>107.360862</v>
+        <v>93.677091000000004</v>
       </c>
       <c r="J92" s="3">
-        <v>5.2113138347803938</v>
+        <v>5.2252627044465587</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -12949,7 +12914,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="3">
-        <v>5220.1060175000002</v>
+        <v>5253.5798342500002</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>157</v>
@@ -12964,10 +12929,10 @@
         <v>274</v>
       </c>
       <c r="I93" s="3">
-        <v>109.285455</v>
+        <v>92.093946000000003</v>
       </c>
       <c r="J93" s="3">
-        <v>5.1378862026589411</v>
+        <v>5.0888217392927562</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -12981,7 +12946,7 @@
         <v>2</v>
       </c>
       <c r="D94" s="3">
-        <v>25692.83583417</v>
+        <v>26288.532740160001</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>157</v>
@@ -12996,10 +12961,10 @@
         <v>275</v>
       </c>
       <c r="I94" s="3">
-        <v>121.220248</v>
+        <v>99.586166000000006</v>
       </c>
       <c r="J94" s="3">
-        <v>5.1758437018957784</v>
+        <v>5.1325722075783746</v>
       </c>
     </row>
   </sheetData>
@@ -13270,10 +13235,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="3">
-        <v>2601.5516353200001</v>
+        <v>2377.5506270199999</v>
       </c>
       <c r="E9" s="9">
-        <v>463.98</v>
+        <v>424.03</v>
       </c>
       <c r="F9" s="8">
         <v>43675</v>
@@ -13304,20 +13269,20 @@
         <v>251</v>
       </c>
       <c r="P9" s="3">
-        <v>17.53</v>
+        <v>17.57</v>
       </c>
       <c r="Q9" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="R9" s="3">
-        <v>7.6929851620445602</v>
+        <v>7.8239723326917847</v>
       </c>
       <c r="S9" s="3">
-        <v>148.66999999999999</v>
+        <v>156.07</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="3">
-        <v>4448.8235290000002</v>
+        <v>4140.3</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -13331,10 +13296,10 @@
         <v>22</v>
       </c>
       <c r="D10" s="3">
-        <v>2334.9330393999999</v>
+        <v>2341.96126594</v>
       </c>
       <c r="E10" s="3">
-        <v>59.8</v>
+        <v>59.98</v>
       </c>
       <c r="F10" s="8">
         <v>44266</v>
@@ -13363,20 +13328,20 @@
         <v>240</v>
       </c>
       <c r="P10" s="3">
-        <v>73.25</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="Q10" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="R10" s="3">
-        <v>14.83971846546736</v>
+        <v>15.054475260685917</v>
       </c>
       <c r="S10" s="3">
-        <v>91.84</v>
+        <v>83.01</v>
       </c>
       <c r="T10" s="6"/>
       <c r="U10" s="3">
-        <v>1293.939394</v>
+        <v>1399.5</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -13390,10 +13355,10 @@
         <v>21</v>
       </c>
       <c r="D11" s="3">
-        <v>507.21473628000001</v>
+        <v>576.13254117999998</v>
       </c>
       <c r="E11" s="3">
-        <v>25.23</v>
+        <v>28.63</v>
       </c>
       <c r="F11" s="8">
         <v>45145</v>
@@ -13428,14 +13393,14 @@
         <v>3</v>
       </c>
       <c r="R11" s="3">
-        <v>7.4394097917379982</v>
+        <v>7.4987573386613517</v>
       </c>
       <c r="S11" s="3">
-        <v>64.459999999999994</v>
+        <v>61.2</v>
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="3">
-        <v>1256.451613</v>
+        <v>1383.4196890000001</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -13449,10 +13414,10 @@
         <v>22</v>
       </c>
       <c r="D12" s="3">
-        <v>5160.1279602499999</v>
+        <v>5133.8799105099997</v>
       </c>
       <c r="E12" s="3">
-        <v>43.25</v>
+        <v>43.03</v>
       </c>
       <c r="F12" s="8">
         <v>43993</v>
@@ -13483,20 +13448,20 @@
         <v>230</v>
       </c>
       <c r="P12" s="3">
-        <v>87.65</v>
+        <v>87.63</v>
       </c>
       <c r="Q12" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R12" s="3">
-        <v>5.8572452024276913</v>
+        <v>5.4421323994470079</v>
       </c>
       <c r="S12" s="3">
-        <v>74.900000000000006</v>
+        <v>84.28</v>
       </c>
       <c r="T12" s="6"/>
       <c r="U12" s="3">
-        <v>590.89456900000005</v>
+        <v>431.23456800000002</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -13510,10 +13475,10 @@
         <v>20</v>
       </c>
       <c r="D13" s="3">
-        <v>1649.373</v>
+        <v>1507.1310000000001</v>
       </c>
       <c r="E13" s="3">
-        <v>109.23</v>
+        <v>99.81</v>
       </c>
       <c r="F13" s="8">
         <v>44131</v>
@@ -13544,20 +13509,20 @@
         <v>311</v>
       </c>
       <c r="P13" s="3">
-        <v>39.200000000000003</v>
+        <v>39.17</v>
       </c>
       <c r="Q13" s="2">
         <v>130</v>
       </c>
       <c r="R13" s="3">
-        <v>24.085330440587452</v>
+        <v>24.433446773653049</v>
       </c>
       <c r="S13" s="3">
-        <v>252.65</v>
+        <v>266.57</v>
       </c>
       <c r="T13" s="6"/>
       <c r="U13" s="3">
-        <v>1021.457906</v>
+        <v>846.06635100000005</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -13571,10 +13536,10 @@
         <v>20</v>
       </c>
       <c r="D14" s="3">
-        <v>111856.10419124</v>
+        <v>113010.539997</v>
       </c>
       <c r="E14" s="3">
-        <v>333.31</v>
+        <v>336.75</v>
       </c>
       <c r="F14" s="8">
         <v>44300</v>
@@ -13607,22 +13572,22 @@
         <v>250</v>
       </c>
       <c r="P14" s="3">
-        <v>59.31</v>
+        <v>57.73</v>
       </c>
       <c r="Q14" s="2">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="R14" s="3">
-        <v>7.1660838424563664</v>
+        <v>7.2371982670428405</v>
       </c>
       <c r="S14" s="3">
-        <v>157.01</v>
+        <v>167.52</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>314</v>
       </c>
       <c r="U14" s="3">
-        <v>744.03646500000002</v>
+        <v>780.392157</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -13636,10 +13601,10 @@
         <v>22</v>
       </c>
       <c r="D15" s="3">
-        <v>2640.2555684700001</v>
+        <v>2372.6089097700001</v>
       </c>
       <c r="E15" s="3">
-        <v>50.31</v>
+        <v>45.21</v>
       </c>
       <c r="F15" s="8">
         <v>44358</v>
@@ -13668,20 +13633,20 @@
         <v>230</v>
       </c>
       <c r="P15" s="9">
-        <v>74.58</v>
+        <v>74.569999999999993</v>
       </c>
       <c r="Q15" s="2">
         <v>203</v>
       </c>
       <c r="R15" s="3">
-        <v>6.1880299916125061</v>
+        <v>6.3026554648171942</v>
       </c>
       <c r="S15" s="3">
-        <v>105.04</v>
+        <v>98.55</v>
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="3">
-        <v>445.07042300000001</v>
+        <v>400.11061999999998</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -13695,10 +13660,10 @@
         <v>20</v>
       </c>
       <c r="D16" s="3">
-        <v>1388.5143865</v>
+        <v>1494.1905820899999</v>
       </c>
       <c r="E16" s="3">
-        <v>74.5</v>
+        <v>80.17</v>
       </c>
       <c r="F16" s="8">
         <v>44119</v>
@@ -13729,20 +13694,20 @@
         <v>230</v>
       </c>
       <c r="P16" s="3">
-        <v>89.37</v>
+        <v>89.39</v>
       </c>
       <c r="Q16" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R16" s="3">
-        <v>7.0436223322978551</v>
+        <v>7.2156153537236793</v>
       </c>
       <c r="S16" s="3">
-        <v>123.97</v>
+        <v>137.97999999999999</v>
       </c>
       <c r="T16" s="6"/>
       <c r="U16" s="3">
-        <v>320.90416900000002</v>
+        <v>356.54897499999998</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -13756,10 +13721,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="3">
-        <v>3048.9702474000001</v>
+        <v>3124.7210610000002</v>
       </c>
       <c r="E17" s="3">
-        <v>32.200000000000003</v>
+        <v>33</v>
       </c>
       <c r="F17" s="8">
         <v>44280</v>
@@ -13788,20 +13753,20 @@
         <v>240</v>
       </c>
       <c r="P17" s="3">
-        <v>70.45</v>
+        <v>70.47</v>
       </c>
       <c r="Q17" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="R17" s="3">
-        <v>4.8605041785550673</v>
+        <v>4.8422980993187839</v>
       </c>
       <c r="S17" s="9">
-        <v>73.260000000000005</v>
+        <v>69.72</v>
       </c>
       <c r="T17" s="6"/>
       <c r="U17" s="3">
-        <v>397.68160699999999</v>
+        <v>433.117932</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -13815,10 +13780,10 @@
         <v>20</v>
       </c>
       <c r="D18" s="3">
-        <v>1186.8321527400001</v>
+        <v>1526.26146664</v>
       </c>
       <c r="E18" s="3">
-        <v>10.14</v>
+        <v>13.04</v>
       </c>
       <c r="F18" s="8">
         <v>43860</v>
@@ -13847,20 +13812,20 @@
         <v>240</v>
       </c>
       <c r="P18" s="3">
-        <v>85.81</v>
+        <v>85.8</v>
       </c>
       <c r="Q18" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="R18" s="3">
-        <v>15.021610574665647</v>
+        <v>14.975916077245754</v>
       </c>
       <c r="S18" s="3">
-        <v>62.62</v>
+        <v>65.510000000000005</v>
       </c>
       <c r="T18" s="6"/>
       <c r="U18" s="3">
-        <v>399.50738899999999</v>
+        <v>555.27638200000001</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -13874,10 +13839,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="3">
-        <v>595.39349238</v>
+        <v>396.21509385000002</v>
       </c>
       <c r="E19" s="3">
-        <v>8.34</v>
+        <v>5.55</v>
       </c>
       <c r="F19" s="8">
         <v>44874</v>
@@ -13906,20 +13871,20 @@
         <v>321</v>
       </c>
       <c r="P19" s="3">
-        <v>26.25</v>
+        <v>26.28</v>
       </c>
       <c r="Q19" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R19" s="3">
-        <v>10.229286602405081</v>
+        <v>11.735207891087098</v>
       </c>
       <c r="S19" s="3">
-        <v>520.48</v>
+        <v>576.01</v>
       </c>
       <c r="T19" s="6"/>
       <c r="U19" s="3">
-        <v>345.989305</v>
+        <v>187.56476699999999</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -13933,10 +13898,10 @@
         <v>21</v>
       </c>
       <c r="D20" s="3">
-        <v>1094.115288</v>
+        <v>899.06318754999995</v>
       </c>
       <c r="E20" s="3">
-        <v>33.6</v>
+        <v>27.61</v>
       </c>
       <c r="F20" s="8">
         <v>45419</v>
@@ -13971,14 +13936,14 @@
         <v>56</v>
       </c>
       <c r="R20" s="3">
-        <v>49.62857365958854</v>
+        <v>51.235483857185415</v>
       </c>
       <c r="S20" s="3">
-        <v>172.19</v>
+        <v>159.07</v>
       </c>
       <c r="T20" s="6"/>
       <c r="U20" s="3">
-        <v>547.39884400000005</v>
+        <v>431.98458599999998</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -13992,10 +13957,10 @@
         <v>2</v>
       </c>
       <c r="D21" s="3">
-        <v>16614.058529999998</v>
+        <v>16144.281702599999</v>
       </c>
       <c r="E21" s="9">
-        <v>145</v>
+        <v>140.9</v>
       </c>
       <c r="F21" s="8">
         <v>45091</v>
@@ -14024,20 +13989,20 @@
         <v>227</v>
       </c>
       <c r="P21" s="3">
-        <v>58.32</v>
+        <v>58.29</v>
       </c>
       <c r="Q21" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="R21" s="3">
-        <v>12.174572782231916</v>
+        <v>12.242831740377271</v>
       </c>
       <c r="S21" s="3">
-        <v>115.1</v>
+        <v>118.43</v>
       </c>
       <c r="T21" s="6"/>
       <c r="U21" s="3">
-        <v>323.110592</v>
+        <v>289.011596</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
@@ -14051,10 +14016,10 @@
         <v>22</v>
       </c>
       <c r="D22" s="3">
-        <v>1561.9400181000001</v>
+        <v>1566.1901950199999</v>
       </c>
       <c r="E22" s="3">
-        <v>22.05</v>
+        <v>22.11</v>
       </c>
       <c r="F22" s="8">
         <v>44035</v>
@@ -14085,20 +14050,20 @@
         <v>240</v>
       </c>
       <c r="P22" s="3">
-        <v>80.13</v>
+        <v>80.150000000000006</v>
       </c>
       <c r="Q22" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="R22" s="3">
-        <v>6.4090721652213229</v>
+        <v>6.4082175681229065</v>
       </c>
       <c r="S22" s="3">
-        <v>107.86</v>
+        <v>112.82</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="3">
-        <v>254.501608</v>
+        <v>219.971056</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
@@ -14112,10 +14077,10 @@
         <v>22</v>
       </c>
       <c r="D23" s="3">
-        <v>1119.93106225</v>
+        <v>236.20364222000001</v>
       </c>
       <c r="E23" s="3">
-        <v>9.625</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="F23" s="8">
         <v>43598</v>
@@ -14150,14 +14115,14 @@
         <v>150</v>
       </c>
       <c r="R23" s="3">
-        <v>7.6426362520164233</v>
+        <v>8.7633715502948561</v>
       </c>
       <c r="S23" s="3">
-        <v>99.25</v>
+        <v>215.44</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="3">
-        <v>420.27026999999998</v>
+        <v>-16.115703</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -14171,10 +14136,10 @@
         <v>20</v>
       </c>
       <c r="D24" s="3">
-        <v>822.83512474999998</v>
+        <v>836.96971584999994</v>
       </c>
       <c r="E24" s="9">
-        <v>8.15</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="F24" s="8">
         <v>44320</v>
@@ -14203,20 +14168,20 @@
         <v>333</v>
       </c>
       <c r="P24" s="3">
-        <v>42.95</v>
+        <v>42.87</v>
       </c>
       <c r="Q24" s="2">
         <v>165</v>
       </c>
       <c r="R24" s="3">
-        <v>7.2906285717485639</v>
+        <v>7.5868657593990783</v>
       </c>
       <c r="S24" s="3">
-        <v>271.22000000000003</v>
+        <v>302.89</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="3">
-        <v>312.65822800000001</v>
+        <v>257.327586</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
@@ -14230,10 +14195,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="3">
-        <v>32397.709001849998</v>
+        <v>33184.447365059998</v>
       </c>
       <c r="E25" s="3">
-        <v>36.65</v>
+        <v>37.54</v>
       </c>
       <c r="F25" s="8">
         <v>44405</v>
@@ -14262,20 +14227,20 @@
         <v>237</v>
       </c>
       <c r="P25" s="3">
-        <v>66.930000000000007</v>
+        <v>65.89</v>
       </c>
       <c r="Q25" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="R25" s="3">
-        <v>10.83631393956197</v>
+        <v>10.945061758047435</v>
       </c>
       <c r="S25" s="3">
-        <v>140.84</v>
+        <v>151.05000000000001</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="3">
-        <v>342.09891399999998</v>
+        <v>302.78969999999998</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
@@ -14289,10 +14254,10 @@
         <v>22</v>
       </c>
       <c r="D26" s="3">
-        <v>3059.1366904299998</v>
+        <v>3150.32188675</v>
       </c>
       <c r="E26" s="3">
-        <v>48.31</v>
+        <v>49.75</v>
       </c>
       <c r="F26" s="8">
         <v>44329</v>
@@ -14321,20 +14286,20 @@
         <v>240</v>
       </c>
       <c r="P26" s="3">
-        <v>80.400000000000006</v>
+        <v>80.44</v>
       </c>
       <c r="Q26" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R26" s="3">
-        <v>6.7549465640217052</v>
+        <v>6.7869870871179945</v>
       </c>
       <c r="S26" s="3">
-        <v>125.31</v>
+        <v>111.96</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="3">
-        <v>257.586973</v>
+        <v>259.46531800000002</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
@@ -14348,10 +14313,10 @@
         <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>5020.1123728000002</v>
+        <v>4740.1890561600003</v>
       </c>
       <c r="E27" s="3">
-        <v>43.4</v>
+        <v>40.98</v>
       </c>
       <c r="F27" s="8">
         <v>44517</v>
@@ -14380,20 +14345,20 @@
         <v>231</v>
       </c>
       <c r="P27" s="3">
-        <v>88.41</v>
+        <v>88.4</v>
       </c>
       <c r="Q27" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="R27" s="3">
-        <v>13.262455189463177</v>
+        <v>13.347492714106114</v>
       </c>
       <c r="S27" s="3">
-        <v>122.28</v>
+        <v>120.96</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="3">
-        <v>352.08333299999998</v>
+        <v>311.44578300000001</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.3">
@@ -14407,10 +14372,10 @@
         <v>20</v>
       </c>
       <c r="D28" s="3">
-        <v>2041.15073162</v>
+        <v>2663.2193018200001</v>
       </c>
       <c r="E28" s="3">
-        <v>10.78</v>
+        <v>13.51</v>
       </c>
       <c r="F28" s="8">
         <v>44516</v>
@@ -14437,20 +14402,20 @@
         <v>207</v>
       </c>
       <c r="P28" s="3">
-        <v>31.55</v>
+        <v>30.39</v>
       </c>
       <c r="Q28" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R28" s="3">
-        <v>33.35550280209813</v>
+        <v>32.950418842007451</v>
       </c>
       <c r="S28" s="3">
-        <v>147.25</v>
+        <v>149.4</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="3">
-        <v>204.51977400000001</v>
+        <v>142.54937200000001</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.3">
@@ -14464,10 +14429,10 @@
         <v>2</v>
       </c>
       <c r="D29" s="3">
-        <v>2862.0414243999999</v>
+        <v>2653.3770202800001</v>
       </c>
       <c r="E29" s="3">
-        <v>23.78</v>
+        <v>22.04</v>
       </c>
       <c r="F29" s="8">
         <v>44223</v>
@@ -14496,20 +14461,20 @@
         <v>211</v>
       </c>
       <c r="P29" s="9">
-        <v>47.08</v>
+        <v>47.01</v>
       </c>
       <c r="Q29" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="R29" s="3">
-        <v>25.600516940512797</v>
+        <v>26.118426087199705</v>
       </c>
       <c r="S29" s="3">
-        <v>100.43</v>
+        <v>120.1</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="3">
-        <v>244.63768099999999</v>
+        <v>189.238845</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
@@ -14523,10 +14488,10 @@
         <v>20</v>
       </c>
       <c r="D30" s="3">
-        <v>3021.4312930199999</v>
+        <v>3115.05597438</v>
       </c>
       <c r="E30" s="3">
-        <v>29.69</v>
+        <v>30.61</v>
       </c>
       <c r="F30" s="8">
         <v>44090</v>
@@ -14555,20 +14520,20 @@
         <v>240</v>
       </c>
       <c r="P30" s="3">
-        <v>84.02</v>
+        <v>84.05</v>
       </c>
       <c r="Q30" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="R30" s="3">
-        <v>7.0087370387899366</v>
+        <v>7.0463711340278161</v>
       </c>
       <c r="S30" s="3">
-        <v>74.33</v>
+        <v>78.67</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="3">
-        <v>168.687783</v>
+        <v>173.30357100000001</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
@@ -14582,10 +14547,10 @@
         <v>2</v>
       </c>
       <c r="D31" s="3">
-        <v>1349.7405000000001</v>
+        <v>1324.3</v>
       </c>
       <c r="E31" s="3">
-        <v>77.459999999999994</v>
+        <v>76</v>
       </c>
       <c r="F31" s="8">
         <v>45470</v>
@@ -14610,20 +14575,20 @@
         <v>340</v>
       </c>
       <c r="P31" s="9">
-        <v>81.53</v>
+        <v>84.69</v>
       </c>
       <c r="Q31" s="2">
         <v>65</v>
       </c>
       <c r="R31" s="3">
-        <v>11.732634918883127</v>
+        <v>11.940433870024975</v>
       </c>
       <c r="S31" s="3">
-        <v>116.56</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="3">
-        <v>234.60043200000001</v>
+        <v>228.29373699999999</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
@@ -14637,10 +14602,10 @@
         <v>20</v>
       </c>
       <c r="D32" s="3">
-        <v>605.41254710999999</v>
+        <v>641.43009146999998</v>
       </c>
       <c r="E32" s="3">
-        <v>11.43</v>
+        <v>12.11</v>
       </c>
       <c r="F32" s="8">
         <v>43634</v>
@@ -14671,20 +14636,20 @@
         <v>230</v>
       </c>
       <c r="P32" s="3">
-        <v>85.04</v>
+        <v>85</v>
       </c>
       <c r="Q32" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R32" s="3">
-        <v>6.642246699761686</v>
+        <v>6.6918168797319151</v>
       </c>
       <c r="S32" s="3">
-        <v>60.66</v>
+        <v>69.180000000000007</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="3">
-        <v>184.32835800000001</v>
+        <v>206.582279</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
@@ -14698,10 +14663,10 @@
         <v>20</v>
       </c>
       <c r="D33" s="3">
-        <v>1128.4350336800001</v>
+        <v>1122.6382783700001</v>
       </c>
       <c r="E33" s="3">
-        <v>5.84</v>
+        <v>5.81</v>
       </c>
       <c r="F33" s="8">
         <v>44314</v>
@@ -14730,20 +14695,20 @@
         <v>344</v>
       </c>
       <c r="P33" s="3">
-        <v>15.67</v>
+        <v>15.7</v>
       </c>
       <c r="Q33" s="2">
         <v>112</v>
       </c>
       <c r="R33" s="3">
-        <v>0.50921109914110607</v>
+        <v>0.50732114030602804</v>
       </c>
       <c r="S33" s="3">
-        <v>139.33000000000001</v>
+        <v>156.35</v>
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="3">
-        <v>157.26872299999999</v>
+        <v>113.602941</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
@@ -14757,10 +14722,10 @@
         <v>22</v>
       </c>
       <c r="D34" s="3">
-        <v>2473.0004686000002</v>
+        <v>2569.1663865</v>
       </c>
       <c r="E34" s="3">
-        <v>43.46</v>
+        <v>45.15</v>
       </c>
       <c r="F34" s="8">
         <v>45120</v>
@@ -14787,20 +14752,20 @@
         <v>230</v>
       </c>
       <c r="P34" s="3">
-        <v>80.8</v>
+        <v>80.83</v>
       </c>
       <c r="Q34" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="R34" s="3">
-        <v>5.5068977922474911</v>
+        <v>5.5291901366744094</v>
       </c>
       <c r="S34" s="3">
-        <v>80.89</v>
+        <v>91.67</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="3">
-        <v>152.674419</v>
+        <v>127.226975</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
@@ -14814,10 +14779,10 @@
         <v>2</v>
       </c>
       <c r="D35" s="3">
-        <v>596.86173399999996</v>
+        <v>571.28194540000004</v>
       </c>
       <c r="E35" s="9">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="F35" s="8">
         <v>44216</v>
@@ -14855,11 +14820,11 @@
         <v>0</v>
       </c>
       <c r="S35" s="9">
-        <v>107.52</v>
+        <v>103.36</v>
       </c>
       <c r="T35" s="6"/>
       <c r="U35" s="3">
-        <v>125.080386</v>
+        <v>106.153846</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
@@ -14873,10 +14838,10 @@
         <v>20</v>
       </c>
       <c r="D36" s="3">
-        <v>765.45728929999996</v>
+        <v>803.37063069999999</v>
       </c>
       <c r="E36" s="9">
-        <v>11.71</v>
+        <v>12.29</v>
       </c>
       <c r="F36" s="8">
         <v>44237</v>
@@ -14910,17 +14875,17 @@
         <v>32.119999999999997</v>
       </c>
       <c r="Q36" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="R36" s="3">
-        <v>2.8994753642336404</v>
+        <v>2.9381085600744896</v>
       </c>
       <c r="S36" s="3">
-        <v>120.97</v>
+        <v>128.66999999999999</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="3">
-        <v>197.208122</v>
+        <v>194.724221</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
@@ -14934,10 +14899,10 @@
         <v>2</v>
       </c>
       <c r="D37" s="3">
-        <v>828.12968966000005</v>
+        <v>825.36823460000005</v>
       </c>
       <c r="E37" s="3">
-        <v>26.99</v>
+        <v>26.9</v>
       </c>
       <c r="F37" s="8">
         <v>44490</v>
@@ -14974,16 +14939,16 @@
         <v>192</v>
       </c>
       <c r="R37" s="3">
-        <v>5.8193553918842857</v>
+        <v>5.8657901593135691</v>
       </c>
       <c r="S37" s="3">
-        <v>151.99</v>
+        <v>150.91999999999999</v>
       </c>
       <c r="T37" s="6" t="s">
         <v>63</v>
       </c>
       <c r="U37" s="3">
-        <v>224.39903899999999</v>
+        <v>220.23809499999999</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
@@ -14997,10 +14962,10 @@
         <v>2</v>
       </c>
       <c r="D38" s="3">
-        <v>1097.93152035</v>
+        <v>1072.2691917</v>
       </c>
       <c r="E38" s="3">
-        <v>15.83</v>
+        <v>15.46</v>
       </c>
       <c r="F38" s="8">
         <v>44131</v>
@@ -15029,20 +14994,20 @@
         <v>353</v>
       </c>
       <c r="P38" s="3">
-        <v>57.58</v>
+        <v>57.63</v>
       </c>
       <c r="Q38" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="R38" s="3">
-        <v>4.1042492646926441</v>
+        <v>4.1489978662847893</v>
       </c>
       <c r="S38" s="3">
-        <v>182.74</v>
+        <v>175.55</v>
       </c>
       <c r="T38" s="6"/>
       <c r="U38" s="3">
-        <v>166.49831699999999</v>
+        <v>146.17834400000001</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
@@ -15056,10 +15021,10 @@
         <v>22</v>
       </c>
       <c r="D39" s="3">
-        <v>5064.3459359999997</v>
+        <v>5172.0173934000004</v>
       </c>
       <c r="E39" s="3">
-        <v>93.6</v>
+        <v>95.59</v>
       </c>
       <c r="F39" s="8">
         <v>44453</v>
@@ -15090,20 +15055,20 @@
         <v>265</v>
       </c>
       <c r="P39" s="3">
-        <v>84.47</v>
+        <v>84.59</v>
       </c>
       <c r="Q39" s="2">
         <v>317</v>
       </c>
       <c r="R39" s="3">
-        <v>5.9440928083438216</v>
+        <v>5.9638469225415882</v>
       </c>
       <c r="S39" s="3">
-        <v>175.72</v>
+        <v>136.74</v>
       </c>
       <c r="T39" s="6"/>
       <c r="U39" s="3">
-        <v>164.780764</v>
+        <v>155.861884</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
@@ -15117,10 +15082,10 @@
         <v>2</v>
       </c>
       <c r="D40" s="3">
-        <v>24276.32</v>
+        <v>24730.720000000001</v>
       </c>
       <c r="E40" s="3">
-        <v>42.74</v>
+        <v>43.54</v>
       </c>
       <c r="F40" s="8">
         <v>44460</v>
@@ -15151,20 +15116,20 @@
         <v>251</v>
       </c>
       <c r="P40" s="3">
-        <v>78.680000000000007</v>
+        <v>78.61</v>
       </c>
       <c r="Q40" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="R40" s="3">
-        <v>7.9581708834630813</v>
+        <v>7.9489899848588657</v>
       </c>
       <c r="S40" s="3">
-        <v>125.64</v>
+        <v>130.80000000000001</v>
       </c>
       <c r="T40" s="6"/>
       <c r="U40" s="3">
-        <v>201.198027</v>
+        <v>184.203655</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
@@ -15178,10 +15143,10 @@
         <v>22</v>
       </c>
       <c r="D41" s="3">
-        <v>790.70545540000001</v>
+        <v>887.61146234</v>
       </c>
       <c r="E41" s="3">
-        <v>13.3</v>
+        <v>14.93</v>
       </c>
       <c r="F41" s="8">
         <v>45544</v>
@@ -15219,11 +15184,11 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>35.46</v>
+        <v>31.65</v>
       </c>
       <c r="T41" s="6"/>
       <c r="U41" s="3">
-        <v>80.706522000000007</v>
+        <v>102.853261</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
@@ -15237,10 +15202,10 @@
         <v>20</v>
       </c>
       <c r="D42" s="3">
-        <v>9546.4504392500003</v>
+        <v>9731.4917693499992</v>
       </c>
       <c r="E42" s="3">
-        <v>56.75</v>
+        <v>57.85</v>
       </c>
       <c r="F42" s="8">
         <v>43873</v>
@@ -15271,20 +15236,20 @@
         <v>240</v>
       </c>
       <c r="P42" s="3">
-        <v>96.03</v>
+        <v>95.99</v>
       </c>
       <c r="Q42" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="R42" s="3">
-        <v>4.067661649519291</v>
+        <v>4.075590847660159</v>
       </c>
       <c r="S42" s="9">
-        <v>114.81</v>
+        <v>107</v>
       </c>
       <c r="T42" s="6"/>
       <c r="U42" s="3">
-        <v>162.974977</v>
+        <v>136.12244899999999</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
@@ -15298,10 +15263,10 @@
         <v>2</v>
       </c>
       <c r="D43" s="3">
-        <v>3485.3981145299999</v>
+        <v>3618.0779841899998</v>
       </c>
       <c r="E43" s="9">
-        <v>6.83</v>
+        <v>7.09</v>
       </c>
       <c r="F43" s="8">
         <v>44286</v>
@@ -15330,20 +15295,20 @@
         <v>363</v>
       </c>
       <c r="P43" s="9">
-        <v>55.78</v>
+        <v>55.74</v>
       </c>
       <c r="Q43" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="R43" s="3">
-        <v>4.7280318900045959</v>
+        <v>4.7523549284713384</v>
       </c>
       <c r="S43" s="3">
-        <v>101.31</v>
+        <v>104.12</v>
       </c>
       <c r="T43" s="6"/>
       <c r="U43" s="3">
-        <v>223.69668300000001</v>
+        <v>191.76954699999999</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
@@ -15357,10 +15322,10 @@
         <v>22</v>
       </c>
       <c r="D44" s="3">
-        <v>2913.1420245200002</v>
+        <v>3034.2530869000002</v>
       </c>
       <c r="E44" s="3">
-        <v>44.98</v>
+        <v>46.85</v>
       </c>
       <c r="F44" s="8">
         <v>44063</v>
@@ -15392,17 +15357,17 @@
         <v>76.23</v>
       </c>
       <c r="Q44" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R44" s="3">
-        <v>4.8193871390311509</v>
+        <v>4.8484350594981134</v>
       </c>
       <c r="S44" s="3">
-        <v>68.650000000000006</v>
+        <v>72.459999999999994</v>
       </c>
       <c r="T44" s="6"/>
       <c r="U44" s="3">
-        <v>125.46365900000001</v>
+        <v>125.56572</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
@@ -15416,10 +15381,10 @@
         <v>20</v>
       </c>
       <c r="D45" s="3">
-        <v>7612.3932420000001</v>
+        <v>8130.5142480000004</v>
       </c>
       <c r="E45" s="3">
-        <v>45.84</v>
+        <v>48.96</v>
       </c>
       <c r="F45" s="8">
         <v>44587</v>
@@ -15448,20 +15413,20 @@
         <v>233</v>
       </c>
       <c r="P45" s="3">
-        <v>78.08</v>
+        <v>78.040000000000006</v>
       </c>
       <c r="Q45" s="2">
         <v>327</v>
       </c>
       <c r="R45" s="3">
-        <v>6.90453293956379</v>
+        <v>6.8819752418554963</v>
       </c>
       <c r="S45" s="3">
-        <v>105.41</v>
+        <v>114.31</v>
       </c>
       <c r="T45" s="6"/>
       <c r="U45" s="3">
-        <v>143.31210200000001</v>
+        <v>156.73833300000001</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
@@ -15475,10 +15440,10 @@
         <v>2</v>
       </c>
       <c r="D46" s="3">
-        <v>25752.064127549998</v>
+        <v>24702.106102850001</v>
       </c>
       <c r="E46" s="9">
-        <v>146.66999999999999</v>
+        <v>140.69</v>
       </c>
       <c r="F46" s="8">
         <v>45371</v>
@@ -15505,20 +15470,20 @@
         <v>215</v>
       </c>
       <c r="P46" s="3">
-        <v>48.68</v>
+        <v>48.77</v>
       </c>
       <c r="Q46" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="R46" s="3">
-        <v>21.976076106967369</v>
+        <v>22.039981725285759</v>
       </c>
       <c r="S46" s="9">
-        <v>164.05</v>
+        <v>173.77</v>
       </c>
       <c r="T46" s="6"/>
       <c r="U46" s="3">
-        <v>190.781126</v>
+        <v>178.925456</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
@@ -15532,10 +15497,10 @@
         <v>20</v>
       </c>
       <c r="D47" s="3">
-        <v>6756.3476055600004</v>
+        <v>7187.85616854</v>
       </c>
       <c r="E47" s="3">
-        <v>74.06</v>
+        <v>78.790000000000006</v>
       </c>
       <c r="F47" s="8">
         <v>44180</v>
@@ -15566,20 +15531,20 @@
         <v>208</v>
       </c>
       <c r="P47" s="3">
-        <v>55.41</v>
+        <v>55.4</v>
       </c>
       <c r="Q47" s="2">
         <v>419</v>
       </c>
       <c r="R47" s="3">
-        <v>40.665849142204856</v>
+        <v>40.634628488213778</v>
       </c>
       <c r="S47" s="3">
-        <v>115.2</v>
+        <v>117.86</v>
       </c>
       <c r="T47" s="6"/>
       <c r="U47" s="3">
-        <v>212.09439499999999</v>
+        <v>143.40438700000001</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
@@ -15593,10 +15558,10 @@
         <v>20</v>
       </c>
       <c r="D48" s="3">
-        <v>547.89061570000001</v>
+        <v>574.53899194999997</v>
       </c>
       <c r="E48" s="3">
-        <v>5.14</v>
+        <v>5.39</v>
       </c>
       <c r="F48" s="8">
         <v>44035</v>
@@ -15627,20 +15592,20 @@
         <v>230</v>
       </c>
       <c r="P48" s="3">
-        <v>71.010000000000005</v>
+        <v>71.3</v>
       </c>
       <c r="Q48" s="2">
         <v>166</v>
       </c>
       <c r="R48" s="3">
-        <v>8.1956357256327461</v>
+        <v>8.3045639383867069</v>
       </c>
       <c r="S48" s="3">
-        <v>75.44</v>
+        <v>83.48</v>
       </c>
       <c r="T48" s="6"/>
       <c r="U48" s="3">
-        <v>88.970588000000006</v>
+        <v>130.34188</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
@@ -15654,10 +15619,10 @@
         <v>20</v>
       </c>
       <c r="D49" s="3">
-        <v>1844.06705496</v>
+        <v>2005.0024260499999</v>
       </c>
       <c r="E49" s="3">
-        <v>48.24</v>
+        <v>52.45</v>
       </c>
       <c r="F49" s="8">
         <v>44119</v>
@@ -15686,20 +15651,20 @@
         <v>240</v>
       </c>
       <c r="P49" s="3">
-        <v>100.38</v>
+        <v>100.42</v>
       </c>
       <c r="Q49" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R49" s="3">
-        <v>9.4283472759415723</v>
+        <v>9.4227561382311968</v>
       </c>
       <c r="S49" s="3">
-        <v>136.41</v>
+        <v>128.58000000000001</v>
       </c>
       <c r="T49" s="6"/>
       <c r="U49" s="3">
-        <v>178.52194</v>
+        <v>230.70617899999999</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
@@ -15713,10 +15678,10 @@
         <v>20</v>
       </c>
       <c r="D50" s="3">
-        <v>466.25428116000001</v>
+        <v>533.88578591999999</v>
       </c>
       <c r="E50" s="3">
-        <v>10.41</v>
+        <v>11.92</v>
       </c>
       <c r="F50" s="8">
         <v>43363</v>
@@ -15745,20 +15710,20 @@
         <v>240</v>
       </c>
       <c r="P50" s="3">
-        <v>49.1</v>
+        <v>49.09</v>
       </c>
       <c r="Q50" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R50" s="3">
-        <v>3.5577551870084894</v>
+        <v>3.5675859997220662</v>
       </c>
       <c r="S50" s="3">
-        <v>84.99</v>
+        <v>86.62</v>
       </c>
       <c r="T50" s="6"/>
       <c r="U50" s="3">
-        <v>91.360293999999996</v>
+        <v>93.506494000000004</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -15772,10 +15737,10 @@
         <v>20</v>
       </c>
       <c r="D51" s="3">
-        <v>2246.6469110399998</v>
+        <v>2361.3524751599998</v>
       </c>
       <c r="E51" s="3">
-        <v>17.04</v>
+        <v>17.91</v>
       </c>
       <c r="F51" s="8">
         <v>44343</v>
@@ -15804,20 +15769,20 @@
         <v>240</v>
       </c>
       <c r="P51" s="3">
-        <v>60.11</v>
+        <v>60.12</v>
       </c>
       <c r="Q51" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R51" s="3" t="s">
         <v>0</v>
       </c>
       <c r="S51" s="3">
-        <v>138.55000000000001</v>
+        <v>157.9</v>
       </c>
       <c r="T51" s="6"/>
       <c r="U51" s="3">
-        <v>152.444444</v>
+        <v>167.313433</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
@@ -15831,10 +15796,10 @@
         <v>20</v>
       </c>
       <c r="D52" s="3">
-        <v>142925.49</v>
+        <v>141138.79</v>
       </c>
       <c r="E52" s="9">
-        <v>135.99</v>
+        <v>134.29</v>
       </c>
       <c r="F52" s="8">
         <v>45182</v>
@@ -15861,20 +15826,20 @@
         <v>233</v>
       </c>
       <c r="P52" s="3">
-        <v>5.76</v>
+        <v>5.73</v>
       </c>
       <c r="Q52" s="2">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="R52" s="3">
-        <v>5.0027451766257256</v>
+        <v>5.0033902065090308</v>
       </c>
       <c r="S52" s="3">
-        <v>56.68</v>
+        <v>53.97</v>
       </c>
       <c r="T52" s="6"/>
       <c r="U52" s="3">
-        <v>112.883532</v>
+        <v>110.15649500000001</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
@@ -15888,10 +15853,10 @@
         <v>20</v>
       </c>
       <c r="D53" s="3">
-        <v>4873.2770749499996</v>
+        <v>4788.9668377099997</v>
       </c>
       <c r="E53" s="3">
-        <v>67.05</v>
+        <v>65.89</v>
       </c>
       <c r="F53" s="8">
         <v>44089</v>
@@ -15920,22 +15885,22 @@
         <v>274</v>
       </c>
       <c r="P53" s="3">
-        <v>94.5</v>
+        <v>94.44</v>
       </c>
       <c r="Q53" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="R53" s="3">
-        <v>3.7232475636765914</v>
+        <v>3.7648511442785542</v>
       </c>
       <c r="S53" s="3">
-        <v>101.01</v>
+        <v>105.13</v>
       </c>
       <c r="T53" s="6" t="s">
         <v>3</v>
       </c>
       <c r="U53" s="3">
-        <v>159.481424</v>
+        <v>155.585725</v>
       </c>
     </row>
   </sheetData>
@@ -15950,8 +15915,8 @@
   </sheetPr>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15969,7 +15934,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>_xll.SNL.Clients.Office.Excel.Functions.SPGTable($B$9:$B$47,$C$6:$H$6,,"Options:Curr=USD,Mag=Standard,ConvMethod=R,FilingVer=Current/Restated")</f>
-        <v>#PEND</v>
+        <v>SPGTable</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -16074,19 +16039,19 @@
         <v>21</v>
       </c>
       <c r="D9" s="27">
-        <v>8377.2736066100006</v>
+        <v>8824.6193735399993</v>
       </c>
       <c r="E9" s="27">
-        <v>26.03</v>
+        <v>27.42</v>
       </c>
       <c r="F9" s="27">
-        <v>37.216658000000002</v>
+        <v>44.772967000000001</v>
       </c>
       <c r="G9" s="27">
-        <v>107.65262219096252</v>
+        <v>122.49657934373803</v>
       </c>
       <c r="H9" s="27">
-        <v>121.22</v>
+        <v>136.06</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -16100,19 +16065,19 @@
         <v>21</v>
       </c>
       <c r="D10" s="27">
-        <v>3898.3285252000001</v>
+        <v>3704.7029361999998</v>
       </c>
       <c r="E10" s="27">
-        <v>15.1</v>
+        <v>14.35</v>
       </c>
       <c r="F10" s="27">
-        <v>23.466885000000001</v>
+        <v>16.006467000000001</v>
       </c>
       <c r="G10" s="27">
-        <v>73.408212459976056</v>
+        <v>73.792790401452478</v>
       </c>
       <c r="H10" s="27">
-        <v>123.5</v>
+        <v>123.3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -16126,19 +16091,19 @@
         <v>20</v>
       </c>
       <c r="D11" s="27">
-        <v>91226.527518600007</v>
+        <v>83785.774669649996</v>
       </c>
       <c r="E11" s="27">
-        <v>421.88</v>
+        <v>387.47</v>
       </c>
       <c r="F11" s="27">
-        <v>92.025488999999993</v>
+        <v>50.042596000000003</v>
       </c>
       <c r="G11" s="27">
-        <v>84.05784343668671</v>
+        <v>92.457974076581237</v>
       </c>
       <c r="H11" s="27">
-        <v>189.71</v>
+        <v>203.61</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -16152,19 +16117,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="27">
-        <v>6881.2732956</v>
+        <v>7898.3168329999999</v>
       </c>
       <c r="E12" s="27">
-        <v>31.8</v>
+        <v>36.5</v>
       </c>
       <c r="F12" s="27">
-        <v>111.858761</v>
+        <v>118.040621</v>
       </c>
       <c r="G12" s="27">
-        <v>74.058223688536856</v>
+        <v>74.391997018724595</v>
       </c>
       <c r="H12" s="27">
-        <v>359.74</v>
+        <v>349.11</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -16178,19 +16143,19 @@
         <v>20</v>
       </c>
       <c r="D13" s="27">
-        <v>6756.3476055600004</v>
+        <v>7187.85616854</v>
       </c>
       <c r="E13" s="27">
-        <v>74.06</v>
+        <v>78.790000000000006</v>
       </c>
       <c r="F13" s="27">
-        <v>42.532718000000003</v>
+        <v>56.267353999999997</v>
       </c>
       <c r="G13" s="27">
-        <v>46.768082586448458</v>
+        <v>47.934666004082331</v>
       </c>
       <c r="H13" s="27">
-        <v>115.2</v>
+        <v>117.86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -16204,19 +16169,19 @@
         <v>21</v>
       </c>
       <c r="D14" s="27">
-        <v>4090.92733585</v>
+        <v>4203.9180177500002</v>
       </c>
       <c r="E14" s="28">
-        <v>12.31</v>
+        <v>12.65</v>
       </c>
       <c r="F14" s="27">
-        <v>24.092742000000001</v>
+        <v>16.375344999999999</v>
       </c>
       <c r="G14" s="27">
-        <v>48.888614342159009</v>
+        <v>50.498846416282497</v>
       </c>
       <c r="H14" s="27">
-        <v>131.07</v>
+        <v>135.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -16230,19 +16195,19 @@
         <v>20</v>
       </c>
       <c r="D15" s="27">
-        <v>76266.758955519996</v>
+        <v>74153.801216599997</v>
       </c>
       <c r="E15" s="27">
-        <v>304.64</v>
+        <v>296.2</v>
       </c>
       <c r="F15" s="27">
-        <v>44.570995000000003</v>
+        <v>34.844760000000001</v>
       </c>
       <c r="G15" s="27">
-        <v>42.981823730845832</v>
+        <v>45.194858430818627</v>
       </c>
       <c r="H15" s="27">
-        <v>153.91</v>
+        <v>162.01</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -16256,19 +16221,19 @@
         <v>20</v>
       </c>
       <c r="D16" s="27">
-        <v>14574.53484219</v>
+        <v>14639.41869235</v>
       </c>
       <c r="E16" s="27">
-        <v>17.97</v>
+        <v>18.05</v>
       </c>
       <c r="F16" s="27">
-        <v>38.230769000000002</v>
+        <v>36.072370999999997</v>
       </c>
       <c r="G16" s="27">
-        <v>35.847263061346538</v>
+        <v>37.478901602254545</v>
       </c>
       <c r="H16" s="27">
-        <v>149.46</v>
+        <v>154.65</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -16282,19 +16247,19 @@
         <v>20</v>
       </c>
       <c r="D17" s="27">
-        <v>3639.12066306</v>
+        <v>3944.2880142600002</v>
       </c>
       <c r="E17" s="27">
-        <v>9.5399999999999991</v>
+        <v>10.34</v>
       </c>
       <c r="F17" s="27">
-        <v>68.849558000000002</v>
+        <v>52.507375000000003</v>
       </c>
       <c r="G17" s="27">
-        <v>34.308293458278861</v>
+        <v>32.881162421106033</v>
       </c>
       <c r="H17" s="27">
-        <v>157.87</v>
+        <v>150.33000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -16308,19 +16273,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="27">
-        <v>25752.064127549998</v>
+        <v>24702.106102850001</v>
       </c>
       <c r="E18" s="27">
-        <v>146.66999999999999</v>
+        <v>140.69</v>
       </c>
       <c r="F18" s="27">
-        <v>89.765816999999998</v>
+        <v>72.118914000000004</v>
       </c>
       <c r="G18" s="27">
-        <v>36.051488757240747</v>
+        <v>38.298812707310866</v>
       </c>
       <c r="H18" s="27">
-        <v>164.05</v>
+        <v>173.77</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -16334,19 +16299,19 @@
         <v>20</v>
       </c>
       <c r="D19" s="27">
-        <v>16928.291249999998</v>
+        <v>17807.260218750002</v>
       </c>
       <c r="E19" s="27">
-        <v>15.6</v>
+        <v>16.41</v>
       </c>
       <c r="F19" s="27">
-        <v>47.448014999999998</v>
+        <v>56.733524000000003</v>
       </c>
       <c r="G19" s="27">
-        <v>28.656940103154238</v>
+        <v>27.760243435289322</v>
       </c>
       <c r="H19" s="27">
-        <v>131.82</v>
+        <v>127.25</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -16360,19 +16325,19 @@
         <v>20</v>
       </c>
       <c r="D20" s="27">
-        <v>9449.5437224800007</v>
+        <v>9541.5420619199995</v>
       </c>
       <c r="E20" s="27">
-        <v>14.38</v>
+        <v>14.52</v>
       </c>
       <c r="F20" s="27">
-        <v>10.95679</v>
+        <v>5.0651229999999998</v>
       </c>
       <c r="G20" s="27">
-        <v>21.07963915132887</v>
+        <v>17.886285207346205</v>
       </c>
       <c r="H20" s="27">
-        <v>81.66</v>
+        <v>69.62</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -16386,19 +16351,19 @@
         <v>2</v>
       </c>
       <c r="D21" s="27">
-        <v>4455.4337981999997</v>
+        <v>4580.5888409199997</v>
       </c>
       <c r="E21" s="27">
-        <v>103.95</v>
+        <v>106.87</v>
       </c>
       <c r="F21" s="27">
-        <v>61.187781000000001</v>
+        <v>17.349291999999998</v>
       </c>
       <c r="G21" s="27">
-        <v>15.978371285504473</v>
+        <v>8.8472161257707658</v>
       </c>
       <c r="H21" s="27">
-        <v>169.22</v>
+        <v>93.46</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -16412,19 +16377,19 @@
         <v>2</v>
       </c>
       <c r="D22" s="27">
-        <v>2862.0414243999999</v>
+        <v>2653.3770202800001</v>
       </c>
       <c r="E22" s="27">
-        <v>23.78</v>
+        <v>22.04</v>
       </c>
       <c r="F22" s="27">
-        <v>-2.3007399999999998</v>
+        <v>-0.31659900000000002</v>
       </c>
       <c r="G22" s="27">
-        <v>25.656816575710735</v>
+        <v>31.276346589917566</v>
       </c>
       <c r="H22" s="27">
-        <v>100.43</v>
+        <v>120.1</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -16438,19 +16403,19 @@
         <v>20</v>
       </c>
       <c r="D23" s="27">
-        <v>5090.7826275199996</v>
+        <v>4993.0440691200001</v>
       </c>
       <c r="E23" s="27">
-        <v>18.23</v>
+        <v>17.88</v>
       </c>
       <c r="F23" s="27">
-        <v>32.871720000000003</v>
+        <v>25.034965</v>
       </c>
       <c r="G23" s="27">
-        <v>20.641357569804981</v>
+        <v>18.829890365258699</v>
       </c>
       <c r="H23" s="28">
-        <v>129.69999999999999</v>
+        <v>118.49</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -16464,19 +16429,19 @@
         <v>21</v>
       </c>
       <c r="D24" s="27">
-        <v>11627.93167428</v>
+        <v>13637.57420784</v>
       </c>
       <c r="E24" s="27">
-        <v>23.26</v>
+        <v>27.28</v>
       </c>
       <c r="F24" s="27">
-        <v>108.422939</v>
+        <v>137.837838</v>
       </c>
       <c r="G24" s="27">
-        <v>23.47125511101537</v>
+        <v>27.67229724731839</v>
       </c>
       <c r="H24" s="28">
-        <v>213.89</v>
+        <v>241.85</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -16490,19 +16455,19 @@
         <v>20</v>
       </c>
       <c r="D25" s="27">
-        <v>6964.7748779200001</v>
+        <v>7201.2204812800001</v>
       </c>
       <c r="E25" s="27">
-        <v>16.79</v>
+        <v>17.36</v>
       </c>
       <c r="F25" s="27">
-        <v>22.020349</v>
+        <v>24.802301</v>
       </c>
       <c r="G25" s="27">
-        <v>21.231412663297842</v>
+        <v>22.118687338066188</v>
       </c>
       <c r="H25" s="27">
-        <v>112.36</v>
+        <v>117.29</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -16516,19 +16481,19 @@
         <v>2</v>
       </c>
       <c r="D26" s="27">
-        <v>3902.8175060399999</v>
+        <v>3879.6836505299998</v>
       </c>
       <c r="E26" s="27">
-        <v>28.68</v>
+        <v>28.51</v>
       </c>
       <c r="F26" s="27">
-        <v>84.437298999999996</v>
+        <v>75.12285</v>
       </c>
       <c r="G26" s="27">
-        <v>18.625491585709469</v>
+        <v>19.465961289193203</v>
       </c>
       <c r="H26" s="27">
-        <v>187.49</v>
+        <v>195.54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -16542,19 +16507,19 @@
         <v>2</v>
       </c>
       <c r="D27" s="27">
-        <v>5581.0565401800004</v>
+        <v>5876.5033320299999</v>
       </c>
       <c r="E27" s="27">
-        <v>125.62</v>
+        <v>132.27000000000001</v>
       </c>
       <c r="F27" s="27">
-        <v>35.177014999999997</v>
+        <v>36.346767999999997</v>
       </c>
       <c r="G27" s="27">
-        <v>16.711431327449926</v>
+        <v>16.437908674514841</v>
       </c>
       <c r="H27" s="27">
-        <v>105.22</v>
+        <v>103.49</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -16568,19 +16533,19 @@
         <v>20</v>
       </c>
       <c r="D28" s="27">
-        <v>16222.718044839999</v>
+        <v>16376.570572250001</v>
       </c>
       <c r="E28" s="27">
-        <v>102.28</v>
+        <v>103.25</v>
       </c>
       <c r="F28" s="27">
-        <v>49.773026999999999</v>
+        <v>39.395167000000001</v>
       </c>
       <c r="G28" s="27">
-        <v>18.047098370164282</v>
+        <v>19.237991345972425</v>
       </c>
       <c r="H28" s="27">
-        <v>177.51</v>
+        <v>187.14</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -16594,19 +16559,19 @@
         <v>20</v>
       </c>
       <c r="D29" s="27">
-        <v>1131738.63337704</v>
+        <v>1107984.19190044</v>
       </c>
       <c r="E29" s="27">
-        <v>352.56</v>
+        <v>345.16</v>
       </c>
       <c r="F29" s="27">
-        <v>61.747028999999998</v>
+        <v>32.999383999999999</v>
       </c>
       <c r="G29" s="27">
-        <v>17.117541041418178</v>
+        <v>15.52865890209924</v>
       </c>
       <c r="H29" s="27">
-        <v>112.32</v>
+        <v>102.68</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -16620,19 +16585,19 @@
         <v>2</v>
       </c>
       <c r="D30" s="27">
-        <v>5888.1171932799998</v>
+        <v>6274.4105960999996</v>
       </c>
       <c r="E30" s="27">
-        <v>25.76</v>
+        <v>27.45</v>
       </c>
       <c r="F30" s="27">
-        <v>164.74820099999999</v>
+        <v>170.710059</v>
       </c>
       <c r="G30" s="27">
-        <v>27.251715583457624</v>
+        <v>28.823315465543502</v>
       </c>
       <c r="H30" s="27">
-        <v>197.55</v>
+        <v>206.11</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -16646,19 +16611,19 @@
         <v>2</v>
       </c>
       <c r="D31" s="27">
-        <v>5827.7468672000005</v>
+        <v>6115.7195151300002</v>
       </c>
       <c r="E31" s="27">
-        <v>51.2</v>
+        <v>53.73</v>
       </c>
       <c r="F31" s="27">
-        <v>47.33813</v>
+        <v>53.076923000000001</v>
       </c>
       <c r="G31" s="27">
-        <v>16.893380004904273</v>
+        <v>17.48274770603836</v>
       </c>
       <c r="H31" s="27">
-        <v>142.08000000000001</v>
+        <v>146.32</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -16669,22 +16634,22 @@
         <v>5148548</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D32" s="27">
-        <v>146590.65135</v>
+        <v>152809.64868000001</v>
       </c>
       <c r="E32" s="27">
-        <v>64.349999999999994</v>
+        <v>67.08</v>
       </c>
       <c r="F32" s="27">
-        <v>49.86027</v>
+        <v>49.298909000000002</v>
       </c>
       <c r="G32" s="27">
-        <v>17.100883866107882</v>
+        <v>18.112449014331098</v>
       </c>
       <c r="H32" s="28">
-        <v>127.48</v>
+        <v>135.11000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -16698,19 +16663,19 @@
         <v>20</v>
       </c>
       <c r="D33" s="27">
-        <v>6120.4830000000002</v>
+        <v>5974.8389999999999</v>
       </c>
       <c r="E33" s="27">
-        <v>89.09</v>
+        <v>86.97</v>
       </c>
       <c r="F33" s="27">
-        <v>33.889389999999999</v>
+        <v>32.25365</v>
       </c>
       <c r="G33" s="27">
-        <v>14.754673398835516</v>
+        <v>15.837300803746599</v>
       </c>
       <c r="H33" s="27">
-        <v>140.72999999999999</v>
+        <v>149.33000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -16724,19 +16689,19 @@
         <v>21</v>
       </c>
       <c r="D34" s="27">
-        <v>5033.22311352</v>
+        <v>4994.4728928000004</v>
       </c>
       <c r="E34" s="27">
-        <v>35.07</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F34" s="27">
-        <v>44.618557000000003</v>
+        <v>35.355893000000002</v>
       </c>
       <c r="G34" s="27">
-        <v>14.211486777177768</v>
+        <v>14.58745509779405</v>
       </c>
       <c r="H34" s="27">
-        <v>106.49</v>
+        <v>109.58</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -16750,19 +16715,19 @@
         <v>20</v>
       </c>
       <c r="D35" s="27">
-        <v>31322.140716000002</v>
+        <v>31845.053397</v>
       </c>
       <c r="E35" s="27">
-        <v>95.24</v>
+        <v>96.83</v>
       </c>
       <c r="F35" s="27">
-        <v>27.856088</v>
+        <v>25.867671999999999</v>
       </c>
       <c r="G35" s="27">
-        <v>9.6807426068617382</v>
+        <v>9.1267151292445359</v>
       </c>
       <c r="H35" s="27">
-        <v>76.599999999999994</v>
+        <v>72.42</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -16776,19 +16741,19 @@
         <v>20</v>
       </c>
       <c r="D36" s="27">
-        <v>32397.709001849998</v>
+        <v>33184.447365059998</v>
       </c>
       <c r="E36" s="27">
-        <v>36.65</v>
+        <v>37.54</v>
       </c>
       <c r="F36" s="27">
-        <v>33.710324999999997</v>
+        <v>33.927934</v>
       </c>
       <c r="G36" s="27">
-        <v>15.232386549274779</v>
+        <v>16.515531599223081</v>
       </c>
       <c r="H36" s="27">
-        <v>140.84</v>
+        <v>151.05000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -16802,19 +16767,19 @@
         <v>20</v>
       </c>
       <c r="D37" s="27">
-        <v>7578.0259121500003</v>
+        <v>7157.9574733299996</v>
       </c>
       <c r="E37" s="27">
-        <v>347.45</v>
+        <v>328.19</v>
       </c>
       <c r="F37" s="27">
-        <v>70.661624000000003</v>
+        <v>50.691032999999997</v>
       </c>
       <c r="G37" s="27">
-        <v>14.210518286064081</v>
+        <v>14.434857116405583</v>
       </c>
       <c r="H37" s="27">
-        <v>141.94</v>
+        <v>143.69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -16828,19 +16793,19 @@
         <v>20</v>
       </c>
       <c r="D38" s="27">
-        <v>3607.7414586599998</v>
+        <v>3832.63232586</v>
       </c>
       <c r="E38" s="27">
-        <v>102.67</v>
+        <v>109.07</v>
       </c>
       <c r="F38" s="27">
-        <v>28.901444000000001</v>
+        <v>25.223880999999999</v>
       </c>
       <c r="G38" s="27">
-        <v>11.338473775070222</v>
+        <v>10.831219584613667</v>
       </c>
       <c r="H38" s="27">
-        <v>111.83</v>
+        <v>106.43</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -16854,19 +16819,19 @@
         <v>2</v>
       </c>
       <c r="D39" s="27">
-        <v>33330.431667359997</v>
+        <v>33466.652586420001</v>
       </c>
       <c r="E39" s="27">
-        <v>259.36</v>
+        <v>260.42</v>
       </c>
       <c r="F39" s="27">
-        <v>31.421333000000001</v>
+        <v>24.758071999999999</v>
       </c>
       <c r="G39" s="27">
-        <v>12.223138666266658</v>
+        <v>12.918701492974517</v>
       </c>
       <c r="H39" s="27">
-        <v>59.56</v>
+        <v>63.05</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -16880,19 +16845,19 @@
         <v>20</v>
       </c>
       <c r="D40" s="27">
-        <v>10893.2303214</v>
+        <v>10903.90995897</v>
       </c>
       <c r="E40" s="27">
-        <v>214.2</v>
+        <v>214.41</v>
       </c>
       <c r="F40" s="27">
-        <v>18.342541000000001</v>
+        <v>18.256025999999999</v>
       </c>
       <c r="G40" s="27">
-        <v>11.520325520747051</v>
+        <v>11.548343106651275</v>
       </c>
       <c r="H40" s="27">
-        <v>192.14</v>
+        <v>189.17</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -16906,19 +16871,19 @@
         <v>2</v>
       </c>
       <c r="D41" s="27">
-        <v>7728.8401774000004</v>
+        <v>8126.2152572499999</v>
       </c>
       <c r="E41" s="27">
-        <v>183.8</v>
+        <v>193.25</v>
       </c>
       <c r="F41" s="27">
-        <v>50.286181999999997</v>
+        <v>56.566474999999997</v>
       </c>
       <c r="G41" s="27">
-        <v>12.129169668728032</v>
+        <v>12.834894700611255</v>
       </c>
       <c r="H41" s="28">
-        <v>155.05000000000001</v>
+        <v>162.99</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -16932,19 +16897,19 @@
         <v>22</v>
       </c>
       <c r="D42" s="27">
-        <v>5064.3459359999997</v>
+        <v>5172.0173934000004</v>
       </c>
       <c r="E42" s="27">
-        <v>93.6</v>
+        <v>95.59</v>
       </c>
       <c r="F42" s="27">
-        <v>37.424754</v>
+        <v>-1.137656</v>
       </c>
       <c r="G42" s="27">
-        <v>10.419613799463008</v>
+        <v>8.1623625998817584</v>
       </c>
       <c r="H42" s="27">
-        <v>175.72</v>
+        <v>136.74</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -16958,19 +16923,19 @@
         <v>20</v>
       </c>
       <c r="D43" s="27">
-        <v>5009.2133638400001</v>
+        <v>4842.6433910400001</v>
       </c>
       <c r="E43" s="27">
-        <v>16.54</v>
+        <v>15.99</v>
       </c>
       <c r="F43" s="27">
-        <v>45.087719</v>
+        <v>35.62341</v>
       </c>
       <c r="G43" s="27">
-        <v>11.402130349824628</v>
+        <v>11.617728324367846</v>
       </c>
       <c r="H43" s="27">
-        <v>186.78</v>
+        <v>188.26</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -16984,19 +16949,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="27">
-        <v>31979.250909314855</v>
+        <v>32662.848734416733</v>
       </c>
       <c r="E44" s="27">
-        <v>24.9</v>
+        <v>25.43</v>
       </c>
       <c r="F44" s="27">
-        <v>16.083915999999999</v>
+        <v>15.067873000000001</v>
       </c>
       <c r="G44" s="27">
-        <v>9.8666895079738506</v>
+        <v>9.6048331925467831</v>
       </c>
       <c r="H44" s="27">
-        <v>77.06</v>
+        <v>75.13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -17010,19 +16975,19 @@
         <v>2</v>
       </c>
       <c r="D45" s="27">
-        <v>12457.6176168</v>
+        <v>12971.103647600001</v>
       </c>
       <c r="E45" s="27">
-        <v>27.9</v>
+        <v>29.05</v>
       </c>
       <c r="F45" s="27">
-        <v>33.301481000000003</v>
+        <v>28.08642</v>
       </c>
       <c r="G45" s="27">
-        <v>11.869738007778341</v>
+        <v>13.979420119407074</v>
       </c>
       <c r="H45" s="27">
-        <v>57.72</v>
+        <v>67.400000000000006</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -17036,19 +17001,19 @@
         <v>2</v>
       </c>
       <c r="D46" s="27">
-        <v>16005.58878195</v>
+        <v>16034.73168438</v>
       </c>
       <c r="E46" s="27">
-        <v>104.35</v>
+        <v>104.54</v>
       </c>
       <c r="F46" s="27">
-        <v>47.720838000000001</v>
+        <v>46.640483000000003</v>
       </c>
       <c r="G46" s="27">
-        <v>11.105577140748322</v>
+        <v>11.783304482143407</v>
       </c>
       <c r="H46" s="27">
-        <v>126.52</v>
+        <v>133.97999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -17062,19 +17027,19 @@
         <v>2</v>
       </c>
       <c r="D47" s="27">
-        <v>7996.7204984800001</v>
+        <v>7448.7218856400004</v>
       </c>
       <c r="E47" s="27">
-        <v>7.88</v>
+        <v>7.34</v>
       </c>
       <c r="F47" s="27">
-        <v>28.548124000000001</v>
+        <v>11.212121</v>
       </c>
       <c r="G47" s="27">
-        <v>8.7916843667388438</v>
+        <v>8.7383561238063994</v>
       </c>
       <c r="H47" s="27">
-        <v>92.24</v>
+        <v>91.61</v>
       </c>
     </row>
   </sheetData>
